--- a/static/Models/Regression/Equation/Multi Nationals.xlsx
+++ b/static/Models/Regression/Equation/Multi Nationals.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-22</t>
+    <t>2024-02-23</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.03147870674729347</v>
+        <v>-0.03176081925630569</v>
       </c>
       <c r="C2">
-        <v>-0.02161012962460518</v>
+        <v>-0.02255567163228989</v>
       </c>
       <c r="D2">
-        <v>0.05419287458062172</v>
+        <v>0.05373422056436539</v>
       </c>
       <c r="E2">
-        <v>0.0521087758243084</v>
+        <v>0.04832245036959648</v>
       </c>
       <c r="F2">
-        <v>-0.004610896110534668</v>
+        <v>-0.006236006505787373</v>
       </c>
       <c r="G2">
-        <v>0.01090082339942455</v>
+        <v>0.01259498950093985</v>
       </c>
       <c r="H2">
-        <v>0.003097244771197438</v>
+        <v>0.001869393512606621</v>
       </c>
       <c r="I2">
-        <v>-0.01083735469728708</v>
+        <v>-0.01129249669611454</v>
       </c>
       <c r="J2">
-        <v>0.1081177443265915</v>
+        <v>0.1063910648226738</v>
       </c>
       <c r="K2">
-        <v>0.006694178096950054</v>
+        <v>0.005126410163938999</v>
       </c>
       <c r="L2">
-        <v>0.006667786743491888</v>
+        <v>0.005754540674388409</v>
       </c>
       <c r="M2">
-        <v>-0.005424140021204948</v>
+        <v>-0.002993182046338916</v>
       </c>
       <c r="N2">
-        <v>0.004874989856034517</v>
+        <v>0.004746985156089067</v>
       </c>
       <c r="O2">
-        <v>0.01230176258832216</v>
+        <v>0.01185798831284046</v>
       </c>
       <c r="P2">
-        <v>0.02718696370720863</v>
+        <v>0.02674741297960281</v>
       </c>
       <c r="Q2">
-        <v>-0.1217646971344948</v>
+        <v>-0.1214344948530197</v>
       </c>
       <c r="R2">
-        <v>-0.006092842668294907</v>
+        <v>-0.003310909494757652</v>
       </c>
       <c r="S2">
-        <v>0.04689793288707733</v>
+        <v>0.04906685650348663</v>
       </c>
       <c r="T2">
-        <v>-0.05713047087192535</v>
+        <v>-0.05695267021656036</v>
       </c>
       <c r="U2">
-        <v>0.0493055060505867</v>
+        <v>0.04646439105272293</v>
       </c>
       <c r="V2">
-        <v>0.001045138924382627</v>
+        <v>0.001497513032518327</v>
       </c>
       <c r="W2">
-        <v>-0.02220905013382435</v>
+        <v>-0.02501485124230385</v>
       </c>
       <c r="X2">
-        <v>0.006585017777979374</v>
+        <v>0.009730605408549309</v>
       </c>
       <c r="Y2">
-        <v>0.07354456186294556</v>
+        <v>0.07493149489164352</v>
       </c>
       <c r="Z2">
-        <v>0.008609330281615257</v>
+        <v>0.007196077611297369</v>
       </c>
       <c r="AA2">
-        <v>-0.00501960376277566</v>
+        <v>-0.0058997324667871</v>
       </c>
       <c r="AB2">
-        <v>0.03815604373812675</v>
+        <v>0.03813192993402481</v>
       </c>
       <c r="AC2">
-        <v>-0.01717064343392849</v>
+        <v>-0.02012637816369534</v>
       </c>
       <c r="AD2">
-        <v>-0.06264951080083847</v>
+        <v>-0.06236313283443451</v>
       </c>
       <c r="AE2">
-        <v>-0.04426009580492973</v>
+        <v>-0.04402534291148186</v>
       </c>
       <c r="AF2">
-        <v>0.000256674800766632</v>
+        <v>0.001921322662383318</v>
       </c>
       <c r="AG2">
-        <v>-0.02605868317186832</v>
+        <v>-0.02554180659353733</v>
       </c>
       <c r="AH2">
-        <v>-0.01788304373621941</v>
+        <v>-0.01783566921949387</v>
       </c>
       <c r="AI2">
-        <v>-0.01583188399672508</v>
+        <v>-0.01334984228014946</v>
       </c>
       <c r="AJ2">
-        <v>0.003818410448729992</v>
+        <v>0.004858513828366995</v>
       </c>
       <c r="AK2">
-        <v>-0.003569204127416015</v>
+        <v>-0.00578688271343708</v>
       </c>
       <c r="AL2">
-        <v>-0.007691343314945698</v>
+        <v>-0.006840062793344259</v>
       </c>
       <c r="AM2">
-        <v>0.0460781641304493</v>
+        <v>0.04275929927825928</v>
       </c>
       <c r="AN2">
-        <v>0.01918909884989262</v>
+        <v>0.01733483001589775</v>
       </c>
       <c r="AO2">
-        <v>-0.04396486654877663</v>
+        <v>-0.04400816559791565</v>
       </c>
       <c r="AP2">
-        <v>-0.05381429567933083</v>
+        <v>-0.05300696939229965</v>
       </c>
       <c r="AQ2">
-        <v>0.009042108431458473</v>
+        <v>0.009693063795566559</v>
       </c>
       <c r="AR2">
-        <v>0.05637308210134506</v>
+        <v>0.05477805808186531</v>
       </c>
       <c r="AS2">
-        <v>-0.05057461932301521</v>
+        <v>-0.05138609185814857</v>
       </c>
       <c r="AT2">
-        <v>-0.000540751323569566</v>
+        <v>-0.0008008725708350539</v>
       </c>
       <c r="AU2">
-        <v>-0.05001609772443771</v>
+        <v>-0.04874345287680626</v>
       </c>
       <c r="AV2">
-        <v>0.008535829372704029</v>
+        <v>0.008026505820453167</v>
       </c>
       <c r="AW2">
-        <v>0.01231913734227419</v>
+        <v>0.01362926140427589</v>
       </c>
       <c r="AX2">
-        <v>-0.0633212998509407</v>
+        <v>-0.06313541531562805</v>
       </c>
       <c r="AY2">
-        <v>-0.04480534419417381</v>
+        <v>-0.04785756394267082</v>
       </c>
       <c r="AZ2">
-        <v>-0.009941807016730309</v>
+        <v>-0.003610013052821159</v>
       </c>
       <c r="BA2">
-        <v>0.00736656878143549</v>
+        <v>0.006914352066814899</v>
       </c>
       <c r="BB2">
-        <v>0.04643461480736732</v>
+        <v>0.0469350665807724</v>
       </c>
       <c r="BC2">
-        <v>-0.004715237300843</v>
+        <v>-0.006436527706682682</v>
       </c>
       <c r="BD2">
-        <v>0.079482302069664</v>
+        <v>0.07977493852376938</v>
       </c>
       <c r="BE2">
-        <v>-0.006329601630568504</v>
+        <v>-0.003349224338307977</v>
       </c>
       <c r="BF2">
-        <v>0.03809559717774391</v>
+        <v>0.03871152177453041</v>
       </c>
       <c r="BG2">
-        <v>0.02395804412662983</v>
+        <v>0.02372937090694904</v>
       </c>
       <c r="BH2">
-        <v>-0.00946197472512722</v>
+        <v>-0.007221801206469536</v>
       </c>
       <c r="BI2">
-        <v>-0.007404609117656946</v>
+        <v>-0.007757169660180807</v>
       </c>
       <c r="BJ2">
-        <v>0.0159028023481369</v>
+        <v>0.02107654698193073</v>
       </c>
       <c r="BK2">
-        <v>-0.004425263032317162</v>
+        <v>-0.007808430586010218</v>
       </c>
       <c r="BL2">
-        <v>-0.0278059970587492</v>
+        <v>-0.02763277105987072</v>
       </c>
       <c r="BM2">
-        <v>-0.02056144550442696</v>
+        <v>-0.01901085115969181</v>
       </c>
       <c r="BN2">
-        <v>0.04336016625165939</v>
+        <v>0.04303494468331337</v>
       </c>
       <c r="BO2">
-        <v>0.05056360736489296</v>
+        <v>0.05096019431948662</v>
       </c>
       <c r="BP2">
-        <v>0.06153268739581108</v>
+        <v>0.06121475622057915</v>
       </c>
       <c r="BQ2">
-        <v>-0.01270335353910923</v>
+        <v>-0.01339885219931602</v>
       </c>
       <c r="BR2">
-        <v>0.006176803261041641</v>
+        <v>0.004841811954975128</v>
       </c>
       <c r="BS2">
-        <v>-0.005782172083854675</v>
+        <v>-0.004465174395591021</v>
       </c>
       <c r="BT2">
-        <v>-0.0001446479000151157</v>
+        <v>-0.001515180920250714</v>
       </c>
       <c r="BU2">
-        <v>0.0297068152576685</v>
+        <v>0.02963097579777241</v>
       </c>
       <c r="BV2">
-        <v>0.1046293824911118</v>
+        <v>0.1009751036763191</v>
       </c>
       <c r="BW2">
-        <v>0.01018747128546238</v>
+        <v>0.007124464958906174</v>
       </c>
       <c r="BX2">
-        <v>0.1681010723114014</v>
+        <v>0.1664074063301086</v>
       </c>
       <c r="BY2">
-        <v>0.006867186166346073</v>
+        <v>0.004054268822073936</v>
       </c>
       <c r="BZ2">
-        <v>-0.1655403077602386</v>
+        <v>-0.167445182800293</v>
       </c>
       <c r="CA2">
-        <v>-0.02949612028896809</v>
+        <v>-0.02851580083370209</v>
       </c>
       <c r="CB2">
-        <v>-0.03453823551535606</v>
+        <v>-0.03459443151950836</v>
       </c>
       <c r="CC2">
-        <v>0.01364375371485949</v>
+        <v>0.013277193531394</v>
       </c>
       <c r="CD2">
-        <v>-0.003591737477108836</v>
+        <v>-0.004079744219779968</v>
       </c>
       <c r="CE2">
-        <v>-0.001720265136100352</v>
+        <v>-0.001458015758544207</v>
       </c>
       <c r="CF2">
-        <v>-0.02207982540130615</v>
+        <v>-0.02212623693048954</v>
       </c>
       <c r="CG2">
-        <v>0.0005175028927624226</v>
+        <v>0.003391657723113894</v>
       </c>
       <c r="CH2">
-        <v>-0.02142063342034817</v>
+        <v>-0.02226970531046391</v>
       </c>
       <c r="CI2">
-        <v>0.01969816908240318</v>
+        <v>0.01991623267531395</v>
       </c>
       <c r="CJ2">
-        <v>0.05220489948987961</v>
+        <v>0.05240665748715401</v>
       </c>
       <c r="CK2">
-        <v>0.01824228279292583</v>
+        <v>0.01920676976442337</v>
       </c>
       <c r="CL2">
-        <v>-0.006130236200988293</v>
+        <v>-0.006144030950963497</v>
       </c>
       <c r="CM2">
-        <v>0.0116273770108819</v>
+        <v>0.01119768060743809</v>
       </c>
       <c r="CN2">
-        <v>-9.052171662915498E-05</v>
+        <v>-0.001995850587263703</v>
       </c>
       <c r="CO2">
-        <v>-0.004687159787863493</v>
+        <v>-0.004438637755811214</v>
       </c>
       <c r="CP2">
-        <v>0.07712896913290024</v>
+        <v>0.07600504159927368</v>
       </c>
       <c r="CQ2">
-        <v>-0.06553372740745544</v>
+        <v>-0.06583680212497711</v>
       </c>
       <c r="CR2">
-        <v>0.003560544922947884</v>
+        <v>0.006292075850069523</v>
       </c>
       <c r="CS2">
-        <v>-0.00571551825851202</v>
+        <v>-0.006210144143551588</v>
       </c>
       <c r="CT2">
-        <v>0.0007418813183903694</v>
+        <v>0.0003803656727541238</v>
       </c>
       <c r="CU2">
-        <v>-0.00235833297483623</v>
+        <v>-0.003776057856157422</v>
       </c>
       <c r="CV2">
-        <v>0.00200865208171308</v>
+        <v>0.0004301834851503372</v>
       </c>
       <c r="CW2">
-        <v>-0.04748275503516197</v>
+        <v>-0.04542441666126251</v>
       </c>
       <c r="CX2">
-        <v>-0.002571376506239176</v>
+        <v>-0.003233510069549084</v>
       </c>
       <c r="CY2">
-        <v>-0.001390941324643791</v>
+        <v>-0.0002782759256660938</v>
       </c>
       <c r="CZ2">
-        <v>-0.0003818135010078549</v>
+        <v>-0.002496116328984499</v>
       </c>
       <c r="DA2">
-        <v>-0.008818291127681732</v>
+        <v>-0.008499806746840477</v>
       </c>
       <c r="DB2">
-        <v>-0.05599287152290344</v>
+        <v>-0.05507797002792358</v>
       </c>
       <c r="DC2">
-        <v>-0.007546581793576479</v>
+        <v>-0.009062281809747219</v>
       </c>
       <c r="DD2">
-        <v>0.0547797717154026</v>
+        <v>0.05336260795593262</v>
       </c>
       <c r="DE2">
-        <v>-0.0001126032002503052</v>
+        <v>-0.0003063640906475484</v>
       </c>
       <c r="DF2">
-        <v>0.02019444480538368</v>
+        <v>0.02011847868561745</v>
       </c>
       <c r="DG2">
-        <v>0.00810172688215971</v>
+        <v>0.008018827065825462</v>
       </c>
       <c r="DH2">
-        <v>0.01058083772659302</v>
+        <v>0.01013941317796707</v>
       </c>
       <c r="DI2">
-        <v>-0.002853662008419633</v>
+        <v>-0.002497305860742927</v>
       </c>
       <c r="DJ2">
-        <v>-0.03452841937541962</v>
+        <v>-0.03401006013154984</v>
       </c>
       <c r="DK2">
-        <v>-0.04980930313467979</v>
+        <v>-0.04829271137714386</v>
       </c>
       <c r="DL2">
-        <v>-0.07211941480636597</v>
+        <v>-0.0717381089925766</v>
       </c>
       <c r="DM2">
-        <v>0.04414962977170944</v>
+        <v>0.04414457827806473</v>
       </c>
       <c r="DN2">
-        <v>-0.08054393529891968</v>
+        <v>-0.08071904629468918</v>
       </c>
       <c r="DO2">
-        <v>-0.01519472058862448</v>
+        <v>-0.0166508536785841</v>
       </c>
       <c r="DP2">
-        <v>-0.01748600229620934</v>
+        <v>-0.01787929609417915</v>
       </c>
       <c r="DQ2">
-        <v>0.001858522184193134</v>
+        <v>0.001768852351233363</v>
       </c>
       <c r="DR2">
-        <v>0.0005904908757656813</v>
+        <v>0.002864057896658778</v>
       </c>
       <c r="DS2">
-        <v>0.01149813551455736</v>
+        <v>0.01107310596853495</v>
       </c>
       <c r="DT2">
-        <v>-0.0347445011138916</v>
+        <v>-0.03617573529481888</v>
       </c>
       <c r="DU2">
-        <v>0.05303629860281944</v>
+        <v>0.05369845032691956</v>
       </c>
       <c r="DV2">
-        <v>-0.001756174373440444</v>
+        <v>-0.001140648615546525</v>
       </c>
       <c r="DW2">
-        <v>0.0006593147409148514</v>
+        <v>-0.0008451233734376729</v>
       </c>
       <c r="DX2">
-        <v>0.05865129083395004</v>
+        <v>0.05847224965691566</v>
       </c>
       <c r="DY2">
-        <v>0.02017314359545708</v>
+        <v>0.01903167739510536</v>
       </c>
       <c r="DZ2">
-        <v>0.009406984783709049</v>
+        <v>0.01118359342217445</v>
       </c>
       <c r="EA2">
-        <v>0.01095311343669891</v>
+        <v>0.00775104621425271</v>
       </c>
       <c r="EB2">
-        <v>-0.04018285498023033</v>
+        <v>-0.04008165374398232</v>
       </c>
       <c r="EC2">
-        <v>0.001215855125337839</v>
+        <v>9.638712799642235E-05</v>
       </c>
       <c r="ED2">
-        <v>0.06864256411790848</v>
+        <v>0.0682821050286293</v>
       </c>
       <c r="EE2">
-        <v>0.00348441069945693</v>
+        <v>0.003666908713057637</v>
       </c>
       <c r="EF2">
-        <v>0.03357968106865883</v>
+        <v>0.03420628234744072</v>
       </c>
       <c r="EG2">
-        <v>0.02237100899219513</v>
+        <v>0.01957955397665501</v>
       </c>
       <c r="EH2">
-        <v>-0.1589086949825287</v>
+        <v>-0.1624302566051483</v>
       </c>
       <c r="EI2">
-        <v>0.04604040831327438</v>
+        <v>0.0439729169011116</v>
       </c>
       <c r="EJ2">
-        <v>0.03850812092423439</v>
+        <v>0.03512808308005333</v>
       </c>
       <c r="EK2">
-        <v>-0.002228638390079141</v>
+        <v>-0.002064637374132872</v>
       </c>
       <c r="EL2">
-        <v>0.002978845965117216</v>
+        <v>0.003053105669096112</v>
       </c>
       <c r="EM2">
-        <v>0.09098485112190247</v>
+        <v>0.09133695811033249</v>
       </c>
       <c r="EN2">
-        <v>-0.03280262649059296</v>
+        <v>-0.03316071256995201</v>
       </c>
       <c r="EO2">
-        <v>-0.05975299701094627</v>
+        <v>-0.05718914791941643</v>
       </c>
       <c r="EP2">
-        <v>0.03143086284399033</v>
+        <v>0.02943700924515724</v>
       </c>
       <c r="EQ2">
-        <v>0.08161692321300507</v>
+        <v>0.0827689990401268</v>
       </c>
       <c r="ER2">
-        <v>0.004795931279659271</v>
+        <v>0.006854409351944923</v>
       </c>
       <c r="ES2">
-        <v>0.0292490404099226</v>
+        <v>0.02686599269509315</v>
       </c>
       <c r="ET2">
-        <v>0.02091298624873161</v>
+        <v>0.01958357915282249</v>
       </c>
       <c r="EU2">
-        <v>0.01503381133079529</v>
+        <v>0.0151340588927269</v>
       </c>
       <c r="EV2">
-        <v>-0.07303702831268311</v>
+        <v>-0.07450789958238602</v>
       </c>
       <c r="EW2">
-        <v>0.1053911298513412</v>
+        <v>0.1053610220551491</v>
       </c>
       <c r="EX2">
-        <v>-0.03054432570934296</v>
+        <v>-0.03315059468150139</v>
       </c>
       <c r="EY2">
-        <v>-0.01026404555886984</v>
+        <v>-0.01071802899241447</v>
       </c>
       <c r="EZ2">
-        <v>0.00907436478883028</v>
+        <v>0.007845231331884861</v>
       </c>
       <c r="FA2">
-        <v>0.005020273849368095</v>
+        <v>0.006724584382027388</v>
       </c>
       <c r="FB2">
-        <v>-0.008216447196900845</v>
+        <v>-0.008054492995142937</v>
       </c>
       <c r="FC2">
-        <v>-0.09558133780956268</v>
+        <v>-0.09697356075048447</v>
       </c>
       <c r="FD2">
-        <v>0.005272295325994492</v>
+        <v>0.003823327133432031</v>
       </c>
       <c r="FE2">
-        <v>-0.02732986025512218</v>
+        <v>-0.02753490023314953</v>
       </c>
       <c r="FF2">
-        <v>0.03363661095499992</v>
+        <v>0.0344831570982933</v>
       </c>
       <c r="FG2">
-        <v>-0.1540937572717667</v>
+        <v>-0.1549530774354935</v>
       </c>
       <c r="FH2">
-        <v>-0.005555801559239626</v>
+        <v>-0.008133693598210812</v>
       </c>
       <c r="FI2">
-        <v>0.05493947863578796</v>
+        <v>0.05286812037229538</v>
       </c>
       <c r="FJ2">
-        <v>-0.04874385148286819</v>
+        <v>-0.05313592776656151</v>
       </c>
       <c r="FK2">
-        <v>-0.03934454917907715</v>
+        <v>-0.04267693683505058</v>
       </c>
       <c r="FL2">
-        <v>-0.07657846808433533</v>
+        <v>-0.07602452486753464</v>
       </c>
       <c r="FM2">
-        <v>0.01647741720080376</v>
+        <v>0.01594027690589428</v>
       </c>
       <c r="FN2">
-        <v>-0.02820137515664101</v>
+        <v>-0.02823315002024174</v>
       </c>
       <c r="FO2">
-        <v>0.004054311197251081</v>
+        <v>0.003391939215362072</v>
       </c>
       <c r="FP2">
-        <v>0.003209565067663789</v>
+        <v>-0.0002014757774304599</v>
       </c>
       <c r="FQ2">
-        <v>-0.003718653693795204</v>
+        <v>-0.003588719060644507</v>
       </c>
       <c r="FR2">
-        <v>-0.004916013218462467</v>
+        <v>-0.004819671623408794</v>
       </c>
       <c r="FS2">
-        <v>0.003299323609098792</v>
+        <v>0.003160889958962798</v>
       </c>
       <c r="FT2">
-        <v>-0.0006328820600174367</v>
+        <v>-0.0005048260209150612</v>
       </c>
       <c r="FU2">
-        <v>-0.07033351808786392</v>
+        <v>-0.07074860483407974</v>
       </c>
       <c r="FV2">
-        <v>-0.05086434632539749</v>
+        <v>-0.05031882598996162</v>
       </c>
       <c r="FW2">
-        <v>0.03699632734060287</v>
+        <v>0.03632364422082901</v>
       </c>
       <c r="FX2">
-        <v>-0.0002253172860946506</v>
+        <v>0.0004713391826953739</v>
       </c>
       <c r="FY2">
-        <v>0.00969994068145752</v>
+        <v>0.01132102962583303</v>
       </c>
       <c r="FZ2">
-        <v>-0.0005760799976997077</v>
+        <v>0.002090195193886757</v>
       </c>
       <c r="GA2">
-        <v>0.003162815934047103</v>
+        <v>0.005183144472539425</v>
       </c>
       <c r="GB2">
-        <v>-0.004251770675182343</v>
+        <v>-0.00521845743060112</v>
       </c>
       <c r="GC2">
-        <v>0.01275679841637611</v>
+        <v>0.01197842042893171</v>
       </c>
       <c r="GD2">
-        <v>0.07152620702981949</v>
+        <v>0.07071422040462494</v>
       </c>
       <c r="GE2">
-        <v>0.002084412379190326</v>
+        <v>0.002188720274716616</v>
       </c>
       <c r="GF2">
-        <v>0.006335177458822727</v>
+        <v>0.003708464791998267</v>
       </c>
       <c r="GG2">
-        <v>-0.09303781390190125</v>
+        <v>-0.0957798957824707</v>
       </c>
       <c r="GH2">
-        <v>-0.002923449501395226</v>
+        <v>0.0002490897313691676</v>
       </c>
       <c r="GI2">
-        <v>0.02351011149585247</v>
+        <v>0.02537944726645947</v>
       </c>
       <c r="GJ2">
-        <v>0.007887198589742184</v>
+        <v>0.004821690265089273</v>
       </c>
       <c r="GK2">
-        <v>-0.05599129572510719</v>
+        <v>-0.05601557716727257</v>
       </c>
       <c r="GL2">
-        <v>0.004014650359749794</v>
+        <v>0.0008126539760269225</v>
       </c>
       <c r="GM2">
-        <v>0.0220608226954937</v>
+        <v>0.01811995543539524</v>
       </c>
       <c r="GN2">
-        <v>-0.03208756446838379</v>
+        <v>-0.02441217564046383</v>
       </c>
       <c r="GO2">
-        <v>0.03528393805027008</v>
+        <v>0.03357494622468948</v>
       </c>
       <c r="GP2">
-        <v>0.001919949660077691</v>
+        <v>0.001882336451672018</v>
       </c>
       <c r="GQ2">
-        <v>0.005400778260082006</v>
+        <v>0.00528330123052001</v>
       </c>
       <c r="GR2">
-        <v>-0.003560062265023589</v>
+        <v>-0.00302757672034204</v>
       </c>
       <c r="GS2">
-        <v>0.01311650220304728</v>
+        <v>0.01324991509318352</v>
       </c>
       <c r="GT2">
-        <v>-0.0009837289107963443</v>
+        <v>-0.001307201571762562</v>
       </c>
       <c r="GU2">
-        <v>-0.01703434437513351</v>
+        <v>-0.01570337451994419</v>
       </c>
       <c r="GV2">
-        <v>-0.001691975514404476</v>
+        <v>-0.004109527450054884</v>
       </c>
       <c r="GW2">
-        <v>0.05039562657475471</v>
+        <v>0.05335282906889915</v>
       </c>
       <c r="GX2">
-        <v>0.004674101248383522</v>
+        <v>0.004343925975263119</v>
       </c>
       <c r="GY2">
-        <v>0.004028519615530968</v>
+        <v>0.004390696063637733</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Multi Nationals.xlsx
+++ b/static/Models/Regression/Equation/Multi Nationals.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-22</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.03176081925630569</v>
+        <v>-0.03147870674729347</v>
       </c>
       <c r="C2">
-        <v>-0.02255567163228989</v>
+        <v>-0.02161012962460518</v>
       </c>
       <c r="D2">
-        <v>0.05373422056436539</v>
+        <v>0.05419287458062172</v>
       </c>
       <c r="E2">
-        <v>0.04832245036959648</v>
+        <v>0.0521087758243084</v>
       </c>
       <c r="F2">
-        <v>-0.006236006505787373</v>
+        <v>-0.004610896110534668</v>
       </c>
       <c r="G2">
-        <v>0.01259498950093985</v>
+        <v>0.01090082339942455</v>
       </c>
       <c r="H2">
-        <v>0.001869393512606621</v>
+        <v>0.003097244771197438</v>
       </c>
       <c r="I2">
-        <v>-0.01129249669611454</v>
+        <v>-0.01083735469728708</v>
       </c>
       <c r="J2">
-        <v>0.1063910648226738</v>
+        <v>0.1081177443265915</v>
       </c>
       <c r="K2">
-        <v>0.005126410163938999</v>
+        <v>0.006694178096950054</v>
       </c>
       <c r="L2">
-        <v>0.005754540674388409</v>
+        <v>0.006667786743491888</v>
       </c>
       <c r="M2">
-        <v>-0.002993182046338916</v>
+        <v>-0.005424140021204948</v>
       </c>
       <c r="N2">
-        <v>0.004746985156089067</v>
+        <v>0.004874989856034517</v>
       </c>
       <c r="O2">
-        <v>0.01185798831284046</v>
+        <v>0.01230176258832216</v>
       </c>
       <c r="P2">
-        <v>0.02674741297960281</v>
+        <v>0.02718696370720863</v>
       </c>
       <c r="Q2">
-        <v>-0.1214344948530197</v>
+        <v>-0.1217646971344948</v>
       </c>
       <c r="R2">
-        <v>-0.003310909494757652</v>
+        <v>-0.006092842668294907</v>
       </c>
       <c r="S2">
-        <v>0.04906685650348663</v>
+        <v>0.04689793288707733</v>
       </c>
       <c r="T2">
-        <v>-0.05695267021656036</v>
+        <v>-0.05713047087192535</v>
       </c>
       <c r="U2">
-        <v>0.04646439105272293</v>
+        <v>0.0493055060505867</v>
       </c>
       <c r="V2">
-        <v>0.001497513032518327</v>
+        <v>0.001045138924382627</v>
       </c>
       <c r="W2">
-        <v>-0.02501485124230385</v>
+        <v>-0.02220905013382435</v>
       </c>
       <c r="X2">
-        <v>0.009730605408549309</v>
+        <v>0.006585017777979374</v>
       </c>
       <c r="Y2">
-        <v>0.07493149489164352</v>
+        <v>0.07354456186294556</v>
       </c>
       <c r="Z2">
-        <v>0.007196077611297369</v>
+        <v>0.008609330281615257</v>
       </c>
       <c r="AA2">
-        <v>-0.0058997324667871</v>
+        <v>-0.00501960376277566</v>
       </c>
       <c r="AB2">
-        <v>0.03813192993402481</v>
+        <v>0.03815604373812675</v>
       </c>
       <c r="AC2">
-        <v>-0.02012637816369534</v>
+        <v>-0.01717064343392849</v>
       </c>
       <c r="AD2">
-        <v>-0.06236313283443451</v>
+        <v>-0.06264951080083847</v>
       </c>
       <c r="AE2">
-        <v>-0.04402534291148186</v>
+        <v>-0.04426009580492973</v>
       </c>
       <c r="AF2">
-        <v>0.001921322662383318</v>
+        <v>0.000256674800766632</v>
       </c>
       <c r="AG2">
-        <v>-0.02554180659353733</v>
+        <v>-0.02605868317186832</v>
       </c>
       <c r="AH2">
-        <v>-0.01783566921949387</v>
+        <v>-0.01788304373621941</v>
       </c>
       <c r="AI2">
-        <v>-0.01334984228014946</v>
+        <v>-0.01583188399672508</v>
       </c>
       <c r="AJ2">
-        <v>0.004858513828366995</v>
+        <v>0.003818410448729992</v>
       </c>
       <c r="AK2">
-        <v>-0.00578688271343708</v>
+        <v>-0.003569204127416015</v>
       </c>
       <c r="AL2">
-        <v>-0.006840062793344259</v>
+        <v>-0.007691343314945698</v>
       </c>
       <c r="AM2">
-        <v>0.04275929927825928</v>
+        <v>0.0460781641304493</v>
       </c>
       <c r="AN2">
-        <v>0.01733483001589775</v>
+        <v>0.01918909884989262</v>
       </c>
       <c r="AO2">
-        <v>-0.04400816559791565</v>
+        <v>-0.04396486654877663</v>
       </c>
       <c r="AP2">
-        <v>-0.05300696939229965</v>
+        <v>-0.05381429567933083</v>
       </c>
       <c r="AQ2">
-        <v>0.009693063795566559</v>
+        <v>0.009042108431458473</v>
       </c>
       <c r="AR2">
-        <v>0.05477805808186531</v>
+        <v>0.05637308210134506</v>
       </c>
       <c r="AS2">
-        <v>-0.05138609185814857</v>
+        <v>-0.05057461932301521</v>
       </c>
       <c r="AT2">
-        <v>-0.0008008725708350539</v>
+        <v>-0.000540751323569566</v>
       </c>
       <c r="AU2">
-        <v>-0.04874345287680626</v>
+        <v>-0.05001609772443771</v>
       </c>
       <c r="AV2">
-        <v>0.008026505820453167</v>
+        <v>0.008535829372704029</v>
       </c>
       <c r="AW2">
-        <v>0.01362926140427589</v>
+        <v>0.01231913734227419</v>
       </c>
       <c r="AX2">
-        <v>-0.06313541531562805</v>
+        <v>-0.0633212998509407</v>
       </c>
       <c r="AY2">
-        <v>-0.04785756394267082</v>
+        <v>-0.04480534419417381</v>
       </c>
       <c r="AZ2">
-        <v>-0.003610013052821159</v>
+        <v>-0.009941807016730309</v>
       </c>
       <c r="BA2">
-        <v>0.006914352066814899</v>
+        <v>0.00736656878143549</v>
       </c>
       <c r="BB2">
-        <v>0.0469350665807724</v>
+        <v>0.04643461480736732</v>
       </c>
       <c r="BC2">
-        <v>-0.006436527706682682</v>
+        <v>-0.004715237300843</v>
       </c>
       <c r="BD2">
-        <v>0.07977493852376938</v>
+        <v>0.079482302069664</v>
       </c>
       <c r="BE2">
-        <v>-0.003349224338307977</v>
+        <v>-0.006329601630568504</v>
       </c>
       <c r="BF2">
-        <v>0.03871152177453041</v>
+        <v>0.03809559717774391</v>
       </c>
       <c r="BG2">
-        <v>0.02372937090694904</v>
+        <v>0.02395804412662983</v>
       </c>
       <c r="BH2">
-        <v>-0.007221801206469536</v>
+        <v>-0.00946197472512722</v>
       </c>
       <c r="BI2">
-        <v>-0.007757169660180807</v>
+        <v>-0.007404609117656946</v>
       </c>
       <c r="BJ2">
-        <v>0.02107654698193073</v>
+        <v>0.0159028023481369</v>
       </c>
       <c r="BK2">
-        <v>-0.007808430586010218</v>
+        <v>-0.004425263032317162</v>
       </c>
       <c r="BL2">
-        <v>-0.02763277105987072</v>
+        <v>-0.0278059970587492</v>
       </c>
       <c r="BM2">
-        <v>-0.01901085115969181</v>
+        <v>-0.02056144550442696</v>
       </c>
       <c r="BN2">
-        <v>0.04303494468331337</v>
+        <v>0.04336016625165939</v>
       </c>
       <c r="BO2">
-        <v>0.05096019431948662</v>
+        <v>0.05056360736489296</v>
       </c>
       <c r="BP2">
-        <v>0.06121475622057915</v>
+        <v>0.06153268739581108</v>
       </c>
       <c r="BQ2">
-        <v>-0.01339885219931602</v>
+        <v>-0.01270335353910923</v>
       </c>
       <c r="BR2">
-        <v>0.004841811954975128</v>
+        <v>0.006176803261041641</v>
       </c>
       <c r="BS2">
-        <v>-0.004465174395591021</v>
+        <v>-0.005782172083854675</v>
       </c>
       <c r="BT2">
-        <v>-0.001515180920250714</v>
+        <v>-0.0001446479000151157</v>
       </c>
       <c r="BU2">
-        <v>0.02963097579777241</v>
+        <v>0.0297068152576685</v>
       </c>
       <c r="BV2">
-        <v>0.1009751036763191</v>
+        <v>0.1046293824911118</v>
       </c>
       <c r="BW2">
-        <v>0.007124464958906174</v>
+        <v>0.01018747128546238</v>
       </c>
       <c r="BX2">
-        <v>0.1664074063301086</v>
+        <v>0.1681010723114014</v>
       </c>
       <c r="BY2">
-        <v>0.004054268822073936</v>
+        <v>0.006867186166346073</v>
       </c>
       <c r="BZ2">
-        <v>-0.167445182800293</v>
+        <v>-0.1655403077602386</v>
       </c>
       <c r="CA2">
-        <v>-0.02851580083370209</v>
+        <v>-0.02949612028896809</v>
       </c>
       <c r="CB2">
-        <v>-0.03459443151950836</v>
+        <v>-0.03453823551535606</v>
       </c>
       <c r="CC2">
-        <v>0.013277193531394</v>
+        <v>0.01364375371485949</v>
       </c>
       <c r="CD2">
-        <v>-0.004079744219779968</v>
+        <v>-0.003591737477108836</v>
       </c>
       <c r="CE2">
-        <v>-0.001458015758544207</v>
+        <v>-0.001720265136100352</v>
       </c>
       <c r="CF2">
-        <v>-0.02212623693048954</v>
+        <v>-0.02207982540130615</v>
       </c>
       <c r="CG2">
-        <v>0.003391657723113894</v>
+        <v>0.0005175028927624226</v>
       </c>
       <c r="CH2">
-        <v>-0.02226970531046391</v>
+        <v>-0.02142063342034817</v>
       </c>
       <c r="CI2">
-        <v>0.01991623267531395</v>
+        <v>0.01969816908240318</v>
       </c>
       <c r="CJ2">
-        <v>0.05240665748715401</v>
+        <v>0.05220489948987961</v>
       </c>
       <c r="CK2">
-        <v>0.01920676976442337</v>
+        <v>0.01824228279292583</v>
       </c>
       <c r="CL2">
-        <v>-0.006144030950963497</v>
+        <v>-0.006130236200988293</v>
       </c>
       <c r="CM2">
-        <v>0.01119768060743809</v>
+        <v>0.0116273770108819</v>
       </c>
       <c r="CN2">
-        <v>-0.001995850587263703</v>
+        <v>-9.052171662915498E-05</v>
       </c>
       <c r="CO2">
-        <v>-0.004438637755811214</v>
+        <v>-0.004687159787863493</v>
       </c>
       <c r="CP2">
-        <v>0.07600504159927368</v>
+        <v>0.07712896913290024</v>
       </c>
       <c r="CQ2">
-        <v>-0.06583680212497711</v>
+        <v>-0.06553372740745544</v>
       </c>
       <c r="CR2">
-        <v>0.006292075850069523</v>
+        <v>0.003560544922947884</v>
       </c>
       <c r="CS2">
-        <v>-0.006210144143551588</v>
+        <v>-0.00571551825851202</v>
       </c>
       <c r="CT2">
-        <v>0.0003803656727541238</v>
+        <v>0.0007418813183903694</v>
       </c>
       <c r="CU2">
-        <v>-0.003776057856157422</v>
+        <v>-0.00235833297483623</v>
       </c>
       <c r="CV2">
-        <v>0.0004301834851503372</v>
+        <v>0.00200865208171308</v>
       </c>
       <c r="CW2">
-        <v>-0.04542441666126251</v>
+        <v>-0.04748275503516197</v>
       </c>
       <c r="CX2">
-        <v>-0.003233510069549084</v>
+        <v>-0.002571376506239176</v>
       </c>
       <c r="CY2">
-        <v>-0.0002782759256660938</v>
+        <v>-0.001390941324643791</v>
       </c>
       <c r="CZ2">
-        <v>-0.002496116328984499</v>
+        <v>-0.0003818135010078549</v>
       </c>
       <c r="DA2">
-        <v>-0.008499806746840477</v>
+        <v>-0.008818291127681732</v>
       </c>
       <c r="DB2">
-        <v>-0.05507797002792358</v>
+        <v>-0.05599287152290344</v>
       </c>
       <c r="DC2">
-        <v>-0.009062281809747219</v>
+        <v>-0.007546581793576479</v>
       </c>
       <c r="DD2">
-        <v>0.05336260795593262</v>
+        <v>0.0547797717154026</v>
       </c>
       <c r="DE2">
-        <v>-0.0003063640906475484</v>
+        <v>-0.0001126032002503052</v>
       </c>
       <c r="DF2">
-        <v>0.02011847868561745</v>
+        <v>0.02019444480538368</v>
       </c>
       <c r="DG2">
-        <v>0.008018827065825462</v>
+        <v>0.00810172688215971</v>
       </c>
       <c r="DH2">
-        <v>0.01013941317796707</v>
+        <v>0.01058083772659302</v>
       </c>
       <c r="DI2">
-        <v>-0.002497305860742927</v>
+        <v>-0.002853662008419633</v>
       </c>
       <c r="DJ2">
-        <v>-0.03401006013154984</v>
+        <v>-0.03452841937541962</v>
       </c>
       <c r="DK2">
-        <v>-0.04829271137714386</v>
+        <v>-0.04980930313467979</v>
       </c>
       <c r="DL2">
-        <v>-0.0717381089925766</v>
+        <v>-0.07211941480636597</v>
       </c>
       <c r="DM2">
-        <v>0.04414457827806473</v>
+        <v>0.04414962977170944</v>
       </c>
       <c r="DN2">
-        <v>-0.08071904629468918</v>
+        <v>-0.08054393529891968</v>
       </c>
       <c r="DO2">
-        <v>-0.0166508536785841</v>
+        <v>-0.01519472058862448</v>
       </c>
       <c r="DP2">
-        <v>-0.01787929609417915</v>
+        <v>-0.01748600229620934</v>
       </c>
       <c r="DQ2">
-        <v>0.001768852351233363</v>
+        <v>0.001858522184193134</v>
       </c>
       <c r="DR2">
-        <v>0.002864057896658778</v>
+        <v>0.0005904908757656813</v>
       </c>
       <c r="DS2">
-        <v>0.01107310596853495</v>
+        <v>0.01149813551455736</v>
       </c>
       <c r="DT2">
-        <v>-0.03617573529481888</v>
+        <v>-0.0347445011138916</v>
       </c>
       <c r="DU2">
-        <v>0.05369845032691956</v>
+        <v>0.05303629860281944</v>
       </c>
       <c r="DV2">
-        <v>-0.001140648615546525</v>
+        <v>-0.001756174373440444</v>
       </c>
       <c r="DW2">
-        <v>-0.0008451233734376729</v>
+        <v>0.0006593147409148514</v>
       </c>
       <c r="DX2">
-        <v>0.05847224965691566</v>
+        <v>0.05865129083395004</v>
       </c>
       <c r="DY2">
-        <v>0.01903167739510536</v>
+        <v>0.02017314359545708</v>
       </c>
       <c r="DZ2">
-        <v>0.01118359342217445</v>
+        <v>0.009406984783709049</v>
       </c>
       <c r="EA2">
-        <v>0.00775104621425271</v>
+        <v>0.01095311343669891</v>
       </c>
       <c r="EB2">
-        <v>-0.04008165374398232</v>
+        <v>-0.04018285498023033</v>
       </c>
       <c r="EC2">
-        <v>9.638712799642235E-05</v>
+        <v>0.001215855125337839</v>
       </c>
       <c r="ED2">
-        <v>0.0682821050286293</v>
+        <v>0.06864256411790848</v>
       </c>
       <c r="EE2">
-        <v>0.003666908713057637</v>
+        <v>0.00348441069945693</v>
       </c>
       <c r="EF2">
-        <v>0.03420628234744072</v>
+        <v>0.03357968106865883</v>
       </c>
       <c r="EG2">
-        <v>0.01957955397665501</v>
+        <v>0.02237100899219513</v>
       </c>
       <c r="EH2">
-        <v>-0.1624302566051483</v>
+        <v>-0.1589086949825287</v>
       </c>
       <c r="EI2">
-        <v>0.0439729169011116</v>
+        <v>0.04604040831327438</v>
       </c>
       <c r="EJ2">
-        <v>0.03512808308005333</v>
+        <v>0.03850812092423439</v>
       </c>
       <c r="EK2">
-        <v>-0.002064637374132872</v>
+        <v>-0.002228638390079141</v>
       </c>
       <c r="EL2">
-        <v>0.003053105669096112</v>
+        <v>0.002978845965117216</v>
       </c>
       <c r="EM2">
-        <v>0.09133695811033249</v>
+        <v>0.09098485112190247</v>
       </c>
       <c r="EN2">
-        <v>-0.03316071256995201</v>
+        <v>-0.03280262649059296</v>
       </c>
       <c r="EO2">
-        <v>-0.05718914791941643</v>
+        <v>-0.05975299701094627</v>
       </c>
       <c r="EP2">
-        <v>0.02943700924515724</v>
+        <v>0.03143086284399033</v>
       </c>
       <c r="EQ2">
-        <v>0.0827689990401268</v>
+        <v>0.08161692321300507</v>
       </c>
       <c r="ER2">
-        <v>0.006854409351944923</v>
+        <v>0.004795931279659271</v>
       </c>
       <c r="ES2">
-        <v>0.02686599269509315</v>
+        <v>0.0292490404099226</v>
       </c>
       <c r="ET2">
-        <v>0.01958357915282249</v>
+        <v>0.02091298624873161</v>
       </c>
       <c r="EU2">
-        <v>0.0151340588927269</v>
+        <v>0.01503381133079529</v>
       </c>
       <c r="EV2">
-        <v>-0.07450789958238602</v>
+        <v>-0.07303702831268311</v>
       </c>
       <c r="EW2">
-        <v>0.1053610220551491</v>
+        <v>0.1053911298513412</v>
       </c>
       <c r="EX2">
-        <v>-0.03315059468150139</v>
+        <v>-0.03054432570934296</v>
       </c>
       <c r="EY2">
-        <v>-0.01071802899241447</v>
+        <v>-0.01026404555886984</v>
       </c>
       <c r="EZ2">
-        <v>0.007845231331884861</v>
+        <v>0.00907436478883028</v>
       </c>
       <c r="FA2">
-        <v>0.006724584382027388</v>
+        <v>0.005020273849368095</v>
       </c>
       <c r="FB2">
-        <v>-0.008054492995142937</v>
+        <v>-0.008216447196900845</v>
       </c>
       <c r="FC2">
-        <v>-0.09697356075048447</v>
+        <v>-0.09558133780956268</v>
       </c>
       <c r="FD2">
-        <v>0.003823327133432031</v>
+        <v>0.005272295325994492</v>
       </c>
       <c r="FE2">
-        <v>-0.02753490023314953</v>
+        <v>-0.02732986025512218</v>
       </c>
       <c r="FF2">
-        <v>0.0344831570982933</v>
+        <v>0.03363661095499992</v>
       </c>
       <c r="FG2">
-        <v>-0.1549530774354935</v>
+        <v>-0.1540937572717667</v>
       </c>
       <c r="FH2">
-        <v>-0.008133693598210812</v>
+        <v>-0.005555801559239626</v>
       </c>
       <c r="FI2">
-        <v>0.05286812037229538</v>
+        <v>0.05493947863578796</v>
       </c>
       <c r="FJ2">
-        <v>-0.05313592776656151</v>
+        <v>-0.04874385148286819</v>
       </c>
       <c r="FK2">
-        <v>-0.04267693683505058</v>
+        <v>-0.03934454917907715</v>
       </c>
       <c r="FL2">
-        <v>-0.07602452486753464</v>
+        <v>-0.07657846808433533</v>
       </c>
       <c r="FM2">
-        <v>0.01594027690589428</v>
+        <v>0.01647741720080376</v>
       </c>
       <c r="FN2">
-        <v>-0.02823315002024174</v>
+        <v>-0.02820137515664101</v>
       </c>
       <c r="FO2">
-        <v>0.003391939215362072</v>
+        <v>0.004054311197251081</v>
       </c>
       <c r="FP2">
-        <v>-0.0002014757774304599</v>
+        <v>0.003209565067663789</v>
       </c>
       <c r="FQ2">
-        <v>-0.003588719060644507</v>
+        <v>-0.003718653693795204</v>
       </c>
       <c r="FR2">
-        <v>-0.004819671623408794</v>
+        <v>-0.004916013218462467</v>
       </c>
       <c r="FS2">
-        <v>0.003160889958962798</v>
+        <v>0.003299323609098792</v>
       </c>
       <c r="FT2">
-        <v>-0.0005048260209150612</v>
+        <v>-0.0006328820600174367</v>
       </c>
       <c r="FU2">
-        <v>-0.07074860483407974</v>
+        <v>-0.07033351808786392</v>
       </c>
       <c r="FV2">
-        <v>-0.05031882598996162</v>
+        <v>-0.05086434632539749</v>
       </c>
       <c r="FW2">
-        <v>0.03632364422082901</v>
+        <v>0.03699632734060287</v>
       </c>
       <c r="FX2">
-        <v>0.0004713391826953739</v>
+        <v>-0.0002253172860946506</v>
       </c>
       <c r="FY2">
-        <v>0.01132102962583303</v>
+        <v>0.00969994068145752</v>
       </c>
       <c r="FZ2">
-        <v>0.002090195193886757</v>
+        <v>-0.0005760799976997077</v>
       </c>
       <c r="GA2">
-        <v>0.005183144472539425</v>
+        <v>0.003162815934047103</v>
       </c>
       <c r="GB2">
-        <v>-0.00521845743060112</v>
+        <v>-0.004251770675182343</v>
       </c>
       <c r="GC2">
-        <v>0.01197842042893171</v>
+        <v>0.01275679841637611</v>
       </c>
       <c r="GD2">
-        <v>0.07071422040462494</v>
+        <v>0.07152620702981949</v>
       </c>
       <c r="GE2">
-        <v>0.002188720274716616</v>
+        <v>0.002084412379190326</v>
       </c>
       <c r="GF2">
-        <v>0.003708464791998267</v>
+        <v>0.006335177458822727</v>
       </c>
       <c r="GG2">
-        <v>-0.0957798957824707</v>
+        <v>-0.09303781390190125</v>
       </c>
       <c r="GH2">
-        <v>0.0002490897313691676</v>
+        <v>-0.002923449501395226</v>
       </c>
       <c r="GI2">
-        <v>0.02537944726645947</v>
+        <v>0.02351011149585247</v>
       </c>
       <c r="GJ2">
-        <v>0.004821690265089273</v>
+        <v>0.007887198589742184</v>
       </c>
       <c r="GK2">
-        <v>-0.05601557716727257</v>
+        <v>-0.05599129572510719</v>
       </c>
       <c r="GL2">
-        <v>0.0008126539760269225</v>
+        <v>0.004014650359749794</v>
       </c>
       <c r="GM2">
-        <v>0.01811995543539524</v>
+        <v>0.0220608226954937</v>
       </c>
       <c r="GN2">
-        <v>-0.02441217564046383</v>
+        <v>-0.03208756446838379</v>
       </c>
       <c r="GO2">
-        <v>0.03357494622468948</v>
+        <v>0.03528393805027008</v>
       </c>
       <c r="GP2">
-        <v>0.001882336451672018</v>
+        <v>0.001919949660077691</v>
       </c>
       <c r="GQ2">
-        <v>0.00528330123052001</v>
+        <v>0.005400778260082006</v>
       </c>
       <c r="GR2">
-        <v>-0.00302757672034204</v>
+        <v>-0.003560062265023589</v>
       </c>
       <c r="GS2">
-        <v>0.01324991509318352</v>
+        <v>0.01311650220304728</v>
       </c>
       <c r="GT2">
-        <v>-0.001307201571762562</v>
+        <v>-0.0009837289107963443</v>
       </c>
       <c r="GU2">
-        <v>-0.01570337451994419</v>
+        <v>-0.01703434437513351</v>
       </c>
       <c r="GV2">
-        <v>-0.004109527450054884</v>
+        <v>-0.001691975514404476</v>
       </c>
       <c r="GW2">
-        <v>0.05335282906889915</v>
+        <v>0.05039562657475471</v>
       </c>
       <c r="GX2">
-        <v>0.004343925975263119</v>
+        <v>0.004674101248383522</v>
       </c>
       <c r="GY2">
-        <v>0.004390696063637733</v>
+        <v>0.004028519615530968</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Multi Nationals.xlsx
+++ b/static/Models/Regression/Equation/Multi Nationals.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-22</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.03147870674729347</v>
+        <v>-0.0318741463124752</v>
       </c>
       <c r="C2">
-        <v>-0.02161012962460518</v>
+        <v>-0.02335877157747746</v>
       </c>
       <c r="D2">
-        <v>0.05419287458062172</v>
+        <v>0.05189268290996552</v>
       </c>
       <c r="E2">
-        <v>0.0521087758243084</v>
+        <v>0.04868347197771072</v>
       </c>
       <c r="F2">
-        <v>-0.004610896110534668</v>
+        <v>-0.007445703726261854</v>
       </c>
       <c r="G2">
-        <v>0.01090082339942455</v>
+        <v>0.007709200959652662</v>
       </c>
       <c r="H2">
-        <v>0.003097244771197438</v>
+        <v>0.0001278861745959148</v>
       </c>
       <c r="I2">
-        <v>-0.01083735469728708</v>
+        <v>-0.01015196833759546</v>
       </c>
       <c r="J2">
-        <v>0.1081177443265915</v>
+        <v>0.1067094504833221</v>
       </c>
       <c r="K2">
-        <v>0.006694178096950054</v>
+        <v>0.000949746638070792</v>
       </c>
       <c r="L2">
-        <v>0.006667786743491888</v>
+        <v>0.005558975040912628</v>
       </c>
       <c r="M2">
-        <v>-0.005424140021204948</v>
+        <v>-0.007072715554386377</v>
       </c>
       <c r="N2">
-        <v>0.004874989856034517</v>
+        <v>0.001674998318776488</v>
       </c>
       <c r="O2">
-        <v>0.01230176258832216</v>
+        <v>0.01030276343226433</v>
       </c>
       <c r="P2">
-        <v>0.02718696370720863</v>
+        <v>0.0235581248998642</v>
       </c>
       <c r="Q2">
-        <v>-0.1217646971344948</v>
+        <v>-0.1199526861310005</v>
       </c>
       <c r="R2">
-        <v>-0.006092842668294907</v>
+        <v>-0.007712788414210081</v>
       </c>
       <c r="S2">
-        <v>0.04689793288707733</v>
+        <v>0.05192530900239944</v>
       </c>
       <c r="T2">
-        <v>-0.05713047087192535</v>
+        <v>-0.05704609677195549</v>
       </c>
       <c r="U2">
-        <v>0.0493055060505867</v>
+        <v>0.04448970779776573</v>
       </c>
       <c r="V2">
-        <v>0.001045138924382627</v>
+        <v>0.005425422918051481</v>
       </c>
       <c r="W2">
-        <v>-0.02220905013382435</v>
+        <v>-0.01987574808299541</v>
       </c>
       <c r="X2">
-        <v>0.006585017777979374</v>
+        <v>0.01198340486735106</v>
       </c>
       <c r="Y2">
-        <v>0.07354456186294556</v>
+        <v>0.07093723118305206</v>
       </c>
       <c r="Z2">
-        <v>0.008609330281615257</v>
+        <v>0.00499321473762393</v>
       </c>
       <c r="AA2">
-        <v>-0.00501960376277566</v>
+        <v>-0.005952706094831228</v>
       </c>
       <c r="AB2">
-        <v>0.03815604373812675</v>
+        <v>0.04329000040888786</v>
       </c>
       <c r="AC2">
-        <v>-0.01717064343392849</v>
+        <v>-0.01628471538424492</v>
       </c>
       <c r="AD2">
-        <v>-0.06264951080083847</v>
+        <v>-0.06184614077210426</v>
       </c>
       <c r="AE2">
-        <v>-0.04426009580492973</v>
+        <v>-0.04035233706235886</v>
       </c>
       <c r="AF2">
-        <v>0.000256674800766632</v>
+        <v>0.002635563490912318</v>
       </c>
       <c r="AG2">
-        <v>-0.02605868317186832</v>
+        <v>-0.02160297892987728</v>
       </c>
       <c r="AH2">
-        <v>-0.01788304373621941</v>
+        <v>-0.01662611775100231</v>
       </c>
       <c r="AI2">
-        <v>-0.01583188399672508</v>
+        <v>-0.01656056009232998</v>
       </c>
       <c r="AJ2">
-        <v>0.003818410448729992</v>
+        <v>0.004919679369777441</v>
       </c>
       <c r="AK2">
-        <v>-0.003569204127416015</v>
+        <v>-0.007625995669513941</v>
       </c>
       <c r="AL2">
-        <v>-0.007691343314945698</v>
+        <v>-0.004231684841215611</v>
       </c>
       <c r="AM2">
-        <v>0.0460781641304493</v>
+        <v>0.04673410207033157</v>
       </c>
       <c r="AN2">
-        <v>0.01918909884989262</v>
+        <v>0.01913926377892494</v>
       </c>
       <c r="AO2">
-        <v>-0.04396486654877663</v>
+        <v>-0.04593289643526077</v>
       </c>
       <c r="AP2">
-        <v>-0.05381429567933083</v>
+        <v>-0.05340934172272682</v>
       </c>
       <c r="AQ2">
-        <v>0.009042108431458473</v>
+        <v>0.01254760287702084</v>
       </c>
       <c r="AR2">
-        <v>0.05637308210134506</v>
+        <v>0.05574604496359825</v>
       </c>
       <c r="AS2">
-        <v>-0.05057461932301521</v>
+        <v>-0.04982596635818481</v>
       </c>
       <c r="AT2">
-        <v>-0.000540751323569566</v>
+        <v>0.0003036196867469698</v>
       </c>
       <c r="AU2">
-        <v>-0.05001609772443771</v>
+        <v>-0.0498218759894371</v>
       </c>
       <c r="AV2">
-        <v>0.008535829372704029</v>
+        <v>0.005901973228901625</v>
       </c>
       <c r="AW2">
-        <v>0.01231913734227419</v>
+        <v>0.01451003085821867</v>
       </c>
       <c r="AX2">
-        <v>-0.0633212998509407</v>
+        <v>-0.06621954590082169</v>
       </c>
       <c r="AY2">
-        <v>-0.04480534419417381</v>
+        <v>-0.04244238138198853</v>
       </c>
       <c r="AZ2">
-        <v>-0.009941807016730309</v>
+        <v>-0.005142412148416042</v>
       </c>
       <c r="BA2">
-        <v>0.00736656878143549</v>
+        <v>0.007192710414528847</v>
       </c>
       <c r="BB2">
-        <v>0.04643461480736732</v>
+        <v>0.04590202122926712</v>
       </c>
       <c r="BC2">
-        <v>-0.004715237300843</v>
+        <v>-0.003672503167763352</v>
       </c>
       <c r="BD2">
-        <v>0.079482302069664</v>
+        <v>0.08017392456531525</v>
       </c>
       <c r="BE2">
-        <v>-0.006329601630568504</v>
+        <v>-0.004873663187026978</v>
       </c>
       <c r="BF2">
-        <v>0.03809559717774391</v>
+        <v>0.03844057396054268</v>
       </c>
       <c r="BG2">
-        <v>0.02395804412662983</v>
+        <v>0.02355790883302689</v>
       </c>
       <c r="BH2">
-        <v>-0.00946197472512722</v>
+        <v>-0.006827258970588446</v>
       </c>
       <c r="BI2">
-        <v>-0.007404609117656946</v>
+        <v>-0.007708278018981218</v>
       </c>
       <c r="BJ2">
-        <v>0.0159028023481369</v>
+        <v>0.01965356804430485</v>
       </c>
       <c r="BK2">
-        <v>-0.004425263032317162</v>
+        <v>-0.005006532650440931</v>
       </c>
       <c r="BL2">
-        <v>-0.0278059970587492</v>
+        <v>-0.02820657193660736</v>
       </c>
       <c r="BM2">
-        <v>-0.02056144550442696</v>
+        <v>-0.02202283404767513</v>
       </c>
       <c r="BN2">
-        <v>0.04336016625165939</v>
+        <v>0.03764116019010544</v>
       </c>
       <c r="BO2">
-        <v>0.05056360736489296</v>
+        <v>0.05129044875502586</v>
       </c>
       <c r="BP2">
-        <v>0.06153268739581108</v>
+        <v>0.06125223636627197</v>
       </c>
       <c r="BQ2">
-        <v>-0.01270335353910923</v>
+        <v>-0.01363746356219053</v>
       </c>
       <c r="BR2">
-        <v>0.006176803261041641</v>
+        <v>0.006143490318208933</v>
       </c>
       <c r="BS2">
-        <v>-0.005782172083854675</v>
+        <v>-0.001893619308248162</v>
       </c>
       <c r="BT2">
-        <v>-0.0001446479000151157</v>
+        <v>-0.003256028052419424</v>
       </c>
       <c r="BU2">
-        <v>0.0297068152576685</v>
+        <v>0.02836292795836926</v>
       </c>
       <c r="BV2">
-        <v>0.1046293824911118</v>
+        <v>0.09796822816133499</v>
       </c>
       <c r="BW2">
-        <v>0.01018747128546238</v>
+        <v>0.007570112589746714</v>
       </c>
       <c r="BX2">
-        <v>0.1681010723114014</v>
+        <v>0.167508065700531</v>
       </c>
       <c r="BY2">
-        <v>0.006867186166346073</v>
+        <v>0.003535323310643435</v>
       </c>
       <c r="BZ2">
-        <v>-0.1655403077602386</v>
+        <v>-0.1676916629076004</v>
       </c>
       <c r="CA2">
-        <v>-0.02949612028896809</v>
+        <v>-0.02925035543739796</v>
       </c>
       <c r="CB2">
-        <v>-0.03453823551535606</v>
+        <v>-0.03482596576213837</v>
       </c>
       <c r="CC2">
-        <v>0.01364375371485949</v>
+        <v>0.01330913230776787</v>
       </c>
       <c r="CD2">
-        <v>-0.003591737477108836</v>
+        <v>-0.0004017235478386283</v>
       </c>
       <c r="CE2">
-        <v>-0.001720265136100352</v>
+        <v>-0.003927921410650015</v>
       </c>
       <c r="CF2">
-        <v>-0.02207982540130615</v>
+        <v>-0.02231557480990887</v>
       </c>
       <c r="CG2">
-        <v>0.0005175028927624226</v>
+        <v>-0.0009072939865291119</v>
       </c>
       <c r="CH2">
-        <v>-0.02142063342034817</v>
+        <v>-0.02663754299283028</v>
       </c>
       <c r="CI2">
-        <v>0.01969816908240318</v>
+        <v>0.02044369094073772</v>
       </c>
       <c r="CJ2">
-        <v>0.05220489948987961</v>
+        <v>0.05231070891022682</v>
       </c>
       <c r="CK2">
-        <v>0.01824228279292583</v>
+        <v>0.01888227090239525</v>
       </c>
       <c r="CL2">
-        <v>-0.006130236200988293</v>
+        <v>-0.005448682233691216</v>
       </c>
       <c r="CM2">
-        <v>0.0116273770108819</v>
+        <v>0.01075799856334925</v>
       </c>
       <c r="CN2">
-        <v>-9.052171662915498E-05</v>
+        <v>0.002817932981997728</v>
       </c>
       <c r="CO2">
-        <v>-0.004687159787863493</v>
+        <v>-0.003403030103072524</v>
       </c>
       <c r="CP2">
-        <v>0.07712896913290024</v>
+        <v>0.07583433389663696</v>
       </c>
       <c r="CQ2">
-        <v>-0.06553372740745544</v>
+        <v>-0.0662785992026329</v>
       </c>
       <c r="CR2">
-        <v>0.003560544922947884</v>
+        <v>0.005135207902640104</v>
       </c>
       <c r="CS2">
-        <v>-0.00571551825851202</v>
+        <v>-0.006439309567213058</v>
       </c>
       <c r="CT2">
-        <v>0.0007418813183903694</v>
+        <v>0.0005645708879455924</v>
       </c>
       <c r="CU2">
-        <v>-0.00235833297483623</v>
+        <v>-0.001162852859124541</v>
       </c>
       <c r="CV2">
-        <v>0.00200865208171308</v>
+        <v>0.002606429159641266</v>
       </c>
       <c r="CW2">
-        <v>-0.04748275503516197</v>
+        <v>-0.04425687342882156</v>
       </c>
       <c r="CX2">
-        <v>-0.002571376506239176</v>
+        <v>0.0007018534233793616</v>
       </c>
       <c r="CY2">
-        <v>-0.001390941324643791</v>
+        <v>-0.0001008549006655812</v>
       </c>
       <c r="CZ2">
-        <v>-0.0003818135010078549</v>
+        <v>-0.001979618333280087</v>
       </c>
       <c r="DA2">
-        <v>-0.008818291127681732</v>
+        <v>-0.01008509751409292</v>
       </c>
       <c r="DB2">
-        <v>-0.05599287152290344</v>
+        <v>-0.05481424927711487</v>
       </c>
       <c r="DC2">
-        <v>-0.007546581793576479</v>
+        <v>-0.005009766202419996</v>
       </c>
       <c r="DD2">
-        <v>0.0547797717154026</v>
+        <v>0.05399121344089508</v>
       </c>
       <c r="DE2">
-        <v>-0.0001126032002503052</v>
+        <v>-0.0007203215500339866</v>
       </c>
       <c r="DF2">
-        <v>0.02019444480538368</v>
+        <v>0.02043167687952518</v>
       </c>
       <c r="DG2">
-        <v>0.00810172688215971</v>
+        <v>0.005793571937829256</v>
       </c>
       <c r="DH2">
-        <v>0.01058083772659302</v>
+        <v>0.009062787517905235</v>
       </c>
       <c r="DI2">
-        <v>-0.002853662008419633</v>
+        <v>-0.004034332931041718</v>
       </c>
       <c r="DJ2">
-        <v>-0.03452841937541962</v>
+        <v>-0.03483867272734642</v>
       </c>
       <c r="DK2">
-        <v>-0.04980930313467979</v>
+        <v>-0.05224093794822693</v>
       </c>
       <c r="DL2">
-        <v>-0.07211941480636597</v>
+        <v>-0.07015597820281982</v>
       </c>
       <c r="DM2">
-        <v>0.04414962977170944</v>
+        <v>0.04359668865799904</v>
       </c>
       <c r="DN2">
-        <v>-0.08054393529891968</v>
+        <v>-0.08068174123764038</v>
       </c>
       <c r="DO2">
-        <v>-0.01519472058862448</v>
+        <v>-0.01562015525996685</v>
       </c>
       <c r="DP2">
-        <v>-0.01748600229620934</v>
+        <v>-0.01789305731654167</v>
       </c>
       <c r="DQ2">
-        <v>0.001858522184193134</v>
+        <v>0.00168168731033802</v>
       </c>
       <c r="DR2">
-        <v>0.0005904908757656813</v>
+        <v>0.003576628863811493</v>
       </c>
       <c r="DS2">
-        <v>0.01149813551455736</v>
+        <v>0.008891883306205273</v>
       </c>
       <c r="DT2">
-        <v>-0.0347445011138916</v>
+        <v>-0.0414092019200325</v>
       </c>
       <c r="DU2">
-        <v>0.05303629860281944</v>
+        <v>0.05356494337320328</v>
       </c>
       <c r="DV2">
-        <v>-0.001756174373440444</v>
+        <v>-0.003782161045819521</v>
       </c>
       <c r="DW2">
-        <v>0.0006593147409148514</v>
+        <v>-0.001920933835208416</v>
       </c>
       <c r="DX2">
-        <v>0.05865129083395004</v>
+        <v>0.05885019898414612</v>
       </c>
       <c r="DY2">
-        <v>0.02017314359545708</v>
+        <v>0.02034271880984306</v>
       </c>
       <c r="DZ2">
-        <v>0.009406984783709049</v>
+        <v>0.005923578981310129</v>
       </c>
       <c r="EA2">
-        <v>0.01095311343669891</v>
+        <v>0.007182420697063208</v>
       </c>
       <c r="EB2">
-        <v>-0.04018285498023033</v>
+        <v>-0.03960033506155014</v>
       </c>
       <c r="EC2">
-        <v>0.001215855125337839</v>
+        <v>0.0007971841259859502</v>
       </c>
       <c r="ED2">
-        <v>0.06864256411790848</v>
+        <v>0.06835475564002991</v>
       </c>
       <c r="EE2">
-        <v>0.00348441069945693</v>
+        <v>0.003248168621212244</v>
       </c>
       <c r="EF2">
-        <v>0.03357968106865883</v>
+        <v>0.03138803690671921</v>
       </c>
       <c r="EG2">
-        <v>0.02237100899219513</v>
+        <v>0.02439934946596622</v>
       </c>
       <c r="EH2">
-        <v>-0.1589086949825287</v>
+        <v>-0.1627358645200729</v>
       </c>
       <c r="EI2">
-        <v>0.04604040831327438</v>
+        <v>0.04318840429186821</v>
       </c>
       <c r="EJ2">
-        <v>0.03850812092423439</v>
+        <v>0.03747231513261795</v>
       </c>
       <c r="EK2">
-        <v>-0.002228638390079141</v>
+        <v>-0.001807857654057443</v>
       </c>
       <c r="EL2">
-        <v>0.002978845965117216</v>
+        <v>0.003412972437217832</v>
       </c>
       <c r="EM2">
-        <v>0.09098485112190247</v>
+        <v>0.08654741197824478</v>
       </c>
       <c r="EN2">
-        <v>-0.03280262649059296</v>
+        <v>-0.03565259650349617</v>
       </c>
       <c r="EO2">
-        <v>-0.05975299701094627</v>
+        <v>-0.06166302412748337</v>
       </c>
       <c r="EP2">
-        <v>0.03143086284399033</v>
+        <v>0.02617737837135792</v>
       </c>
       <c r="EQ2">
-        <v>0.08161692321300507</v>
+        <v>0.08107545226812363</v>
       </c>
       <c r="ER2">
-        <v>0.004795931279659271</v>
+        <v>0.003430374665185809</v>
       </c>
       <c r="ES2">
-        <v>0.0292490404099226</v>
+        <v>0.02849626913666725</v>
       </c>
       <c r="ET2">
-        <v>0.02091298624873161</v>
+        <v>0.01646100915968418</v>
       </c>
       <c r="EU2">
-        <v>0.01503381133079529</v>
+        <v>0.009947339072823524</v>
       </c>
       <c r="EV2">
-        <v>-0.07303702831268311</v>
+        <v>-0.08148517459630966</v>
       </c>
       <c r="EW2">
-        <v>0.1053911298513412</v>
+        <v>0.1054839417338371</v>
       </c>
       <c r="EX2">
-        <v>-0.03054432570934296</v>
+        <v>-0.02913789823651314</v>
       </c>
       <c r="EY2">
-        <v>-0.01026404555886984</v>
+        <v>-0.01129733305424452</v>
       </c>
       <c r="EZ2">
-        <v>0.00907436478883028</v>
+        <v>0.007217036094516516</v>
       </c>
       <c r="FA2">
-        <v>0.005020273849368095</v>
+        <v>0.005880313459783792</v>
       </c>
       <c r="FB2">
-        <v>-0.008216447196900845</v>
+        <v>-0.00802169181406498</v>
       </c>
       <c r="FC2">
-        <v>-0.09558133780956268</v>
+        <v>-0.09804633259773254</v>
       </c>
       <c r="FD2">
-        <v>0.005272295325994492</v>
+        <v>0.003625553566962481</v>
       </c>
       <c r="FE2">
-        <v>-0.02732986025512218</v>
+        <v>-0.02961986139416695</v>
       </c>
       <c r="FF2">
-        <v>0.03363661095499992</v>
+        <v>0.03544521331787109</v>
       </c>
       <c r="FG2">
-        <v>-0.1540937572717667</v>
+        <v>-0.1574723422527313</v>
       </c>
       <c r="FH2">
-        <v>-0.005555801559239626</v>
+        <v>-0.004737754352390766</v>
       </c>
       <c r="FI2">
-        <v>0.05493947863578796</v>
+        <v>0.04867866635322571</v>
       </c>
       <c r="FJ2">
-        <v>-0.04874385148286819</v>
+        <v>-0.05054031312465668</v>
       </c>
       <c r="FK2">
-        <v>-0.03934454917907715</v>
+        <v>-0.04188107326626778</v>
       </c>
       <c r="FL2">
-        <v>-0.07657846808433533</v>
+        <v>-0.07700025290250778</v>
       </c>
       <c r="FM2">
-        <v>0.01647741720080376</v>
+        <v>0.00986239779740572</v>
       </c>
       <c r="FN2">
-        <v>-0.02820137515664101</v>
+        <v>-0.02727154642343521</v>
       </c>
       <c r="FO2">
-        <v>0.004054311197251081</v>
+        <v>0.002404942642897367</v>
       </c>
       <c r="FP2">
-        <v>0.003209565067663789</v>
+        <v>-0.004091277252882719</v>
       </c>
       <c r="FQ2">
-        <v>-0.003718653693795204</v>
+        <v>-0.003063562558963895</v>
       </c>
       <c r="FR2">
-        <v>-0.004916013218462467</v>
+        <v>-0.004859354812651873</v>
       </c>
       <c r="FS2">
-        <v>0.003299323609098792</v>
+        <v>0.003608710831031203</v>
       </c>
       <c r="FT2">
-        <v>-0.0006328820600174367</v>
+        <v>0.000511336897034198</v>
       </c>
       <c r="FU2">
-        <v>-0.07033351808786392</v>
+        <v>-0.0708039253950119</v>
       </c>
       <c r="FV2">
-        <v>-0.05086434632539749</v>
+        <v>-0.05106156691908836</v>
       </c>
       <c r="FW2">
-        <v>0.03699632734060287</v>
+        <v>0.03688206523656845</v>
       </c>
       <c r="FX2">
-        <v>-0.0002253172860946506</v>
+        <v>-0.0006643205415457487</v>
       </c>
       <c r="FY2">
-        <v>0.00969994068145752</v>
+        <v>0.007795203942805529</v>
       </c>
       <c r="FZ2">
-        <v>-0.0005760799976997077</v>
+        <v>-0.00062793173128739</v>
       </c>
       <c r="GA2">
-        <v>0.003162815934047103</v>
+        <v>0.009519156068563461</v>
       </c>
       <c r="GB2">
-        <v>-0.004251770675182343</v>
+        <v>-0.003076834604144096</v>
       </c>
       <c r="GC2">
-        <v>0.01275679841637611</v>
+        <v>0.009887943975627422</v>
       </c>
       <c r="GD2">
-        <v>0.07152620702981949</v>
+        <v>0.07117746025323868</v>
       </c>
       <c r="GE2">
-        <v>0.002084412379190326</v>
+        <v>0.002174530876800418</v>
       </c>
       <c r="GF2">
-        <v>0.006335177458822727</v>
+        <v>0.003185617504641414</v>
       </c>
       <c r="GG2">
-        <v>-0.09303781390190125</v>
+        <v>-0.09668613970279694</v>
       </c>
       <c r="GH2">
-        <v>-0.002923449501395226</v>
+        <v>-0.001098615699447691</v>
       </c>
       <c r="GI2">
-        <v>0.02351011149585247</v>
+        <v>0.03074696101248264</v>
       </c>
       <c r="GJ2">
-        <v>0.007887198589742184</v>
+        <v>0.005850780289620161</v>
       </c>
       <c r="GK2">
-        <v>-0.05599129572510719</v>
+        <v>-0.05690082535147667</v>
       </c>
       <c r="GL2">
-        <v>0.004014650359749794</v>
+        <v>4.874342630500905E-05</v>
       </c>
       <c r="GM2">
-        <v>0.0220608226954937</v>
+        <v>0.0208275206387043</v>
       </c>
       <c r="GN2">
-        <v>-0.03208756446838379</v>
+        <v>-0.02849255502223969</v>
       </c>
       <c r="GO2">
-        <v>0.03528393805027008</v>
+        <v>0.02974964119493961</v>
       </c>
       <c r="GP2">
-        <v>0.001919949660077691</v>
+        <v>0.002198068657889962</v>
       </c>
       <c r="GQ2">
-        <v>0.005400778260082006</v>
+        <v>0.00327515066601336</v>
       </c>
       <c r="GR2">
-        <v>-0.003560062265023589</v>
+        <v>-0.0008989102789200842</v>
       </c>
       <c r="GS2">
-        <v>0.01311650220304728</v>
+        <v>0.00992950052022934</v>
       </c>
       <c r="GT2">
-        <v>-0.0009837289107963443</v>
+        <v>0.002440502401441336</v>
       </c>
       <c r="GU2">
-        <v>-0.01703434437513351</v>
+        <v>-0.01480526477098465</v>
       </c>
       <c r="GV2">
-        <v>-0.001691975514404476</v>
+        <v>-0.005232292227447033</v>
       </c>
       <c r="GW2">
-        <v>0.05039562657475471</v>
+        <v>0.05420908704400063</v>
       </c>
       <c r="GX2">
-        <v>0.004674101248383522</v>
+        <v>0.004110267385840416</v>
       </c>
       <c r="GY2">
-        <v>0.004028519615530968</v>
+        <v>0.004789408296346664</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Multi Nationals.xlsx
+++ b/static/Models/Regression/Equation/Multi Nationals.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.0318741463124752</v>
+        <v>-0.03033973090350628</v>
       </c>
       <c r="C2">
-        <v>-0.02335877157747746</v>
+        <v>-0.02519872784614563</v>
       </c>
       <c r="D2">
-        <v>0.05189268290996552</v>
+        <v>0.05280487984418869</v>
       </c>
       <c r="E2">
-        <v>0.04868347197771072</v>
+        <v>0.04495800659060478</v>
       </c>
       <c r="F2">
-        <v>-0.007445703726261854</v>
+        <v>-0.006898739375174046</v>
       </c>
       <c r="G2">
-        <v>0.007709200959652662</v>
+        <v>0.00967935286462307</v>
       </c>
       <c r="H2">
-        <v>0.0001278861745959148</v>
+        <v>0.001887504127807915</v>
       </c>
       <c r="I2">
-        <v>-0.01015196833759546</v>
+        <v>-0.01154674682766199</v>
       </c>
       <c r="J2">
-        <v>0.1067094504833221</v>
+        <v>0.1047534570097923</v>
       </c>
       <c r="K2">
-        <v>0.000949746638070792</v>
+        <v>0.003473023185506463</v>
       </c>
       <c r="L2">
-        <v>0.005558975040912628</v>
+        <v>0.006274253129959106</v>
       </c>
       <c r="M2">
-        <v>-0.007072715554386377</v>
+        <v>-0.004795611370354891</v>
       </c>
       <c r="N2">
-        <v>0.001674998318776488</v>
+        <v>-0.0007130359299480915</v>
       </c>
       <c r="O2">
-        <v>0.01030276343226433</v>
+        <v>0.009094291366636753</v>
       </c>
       <c r="P2">
-        <v>0.0235581248998642</v>
+        <v>0.02272619865834713</v>
       </c>
       <c r="Q2">
-        <v>-0.1199526861310005</v>
+        <v>-0.1187001392245293</v>
       </c>
       <c r="R2">
-        <v>-0.007712788414210081</v>
+        <v>-0.008944998495280743</v>
       </c>
       <c r="S2">
-        <v>0.05192530900239944</v>
+        <v>0.05010304227471352</v>
       </c>
       <c r="T2">
-        <v>-0.05704609677195549</v>
+        <v>-0.05881635099649429</v>
       </c>
       <c r="U2">
-        <v>0.04448970779776573</v>
+        <v>0.04695384204387665</v>
       </c>
       <c r="V2">
-        <v>0.005425422918051481</v>
+        <v>0.005813007708638906</v>
       </c>
       <c r="W2">
-        <v>-0.01987574808299541</v>
+        <v>-0.02199769206345081</v>
       </c>
       <c r="X2">
-        <v>0.01198340486735106</v>
+        <v>0.01090500503778458</v>
       </c>
       <c r="Y2">
-        <v>0.07093723118305206</v>
+        <v>0.06864082813262939</v>
       </c>
       <c r="Z2">
-        <v>0.00499321473762393</v>
+        <v>0.006269807927310467</v>
       </c>
       <c r="AA2">
-        <v>-0.005952706094831228</v>
+        <v>-0.004747811704874039</v>
       </c>
       <c r="AB2">
-        <v>0.04329000040888786</v>
+        <v>0.04304984211921692</v>
       </c>
       <c r="AC2">
-        <v>-0.01628471538424492</v>
+        <v>-0.01923034898936749</v>
       </c>
       <c r="AD2">
-        <v>-0.06184614077210426</v>
+        <v>-0.06320957839488983</v>
       </c>
       <c r="AE2">
-        <v>-0.04035233706235886</v>
+        <v>-0.0398068018257618</v>
       </c>
       <c r="AF2">
-        <v>0.002635563490912318</v>
+        <v>0.005182505119591951</v>
       </c>
       <c r="AG2">
-        <v>-0.02160297892987728</v>
+        <v>-0.02404402941465378</v>
       </c>
       <c r="AH2">
-        <v>-0.01662611775100231</v>
+        <v>-0.0170135386288166</v>
       </c>
       <c r="AI2">
-        <v>-0.01656056009232998</v>
+        <v>-0.016904192045331</v>
       </c>
       <c r="AJ2">
-        <v>0.004919679369777441</v>
+        <v>0.006303939968347549</v>
       </c>
       <c r="AK2">
-        <v>-0.007625995669513941</v>
+        <v>-0.006555226631462574</v>
       </c>
       <c r="AL2">
-        <v>-0.004231684841215611</v>
+        <v>-0.004636608529835939</v>
       </c>
       <c r="AM2">
-        <v>0.04673410207033157</v>
+        <v>0.0487680658698082</v>
       </c>
       <c r="AN2">
-        <v>0.01913926377892494</v>
+        <v>0.01786108687520027</v>
       </c>
       <c r="AO2">
-        <v>-0.04593289643526077</v>
+        <v>-0.04785722494125366</v>
       </c>
       <c r="AP2">
-        <v>-0.05340934172272682</v>
+        <v>-0.05266710370779037</v>
       </c>
       <c r="AQ2">
-        <v>0.01254760287702084</v>
+        <v>0.01134825963526964</v>
       </c>
       <c r="AR2">
-        <v>0.05574604496359825</v>
+        <v>0.05555933713912964</v>
       </c>
       <c r="AS2">
-        <v>-0.04982596635818481</v>
+        <v>-0.0499645471572876</v>
       </c>
       <c r="AT2">
-        <v>0.0003036196867469698</v>
+        <v>-8.677498408360407E-05</v>
       </c>
       <c r="AU2">
-        <v>-0.0498218759894371</v>
+        <v>-0.04839447513222694</v>
       </c>
       <c r="AV2">
-        <v>0.005901973228901625</v>
+        <v>0.00474582938477397</v>
       </c>
       <c r="AW2">
-        <v>0.01451003085821867</v>
+        <v>0.01661962270736694</v>
       </c>
       <c r="AX2">
-        <v>-0.06621954590082169</v>
+        <v>-0.06426490843296051</v>
       </c>
       <c r="AY2">
-        <v>-0.04244238138198853</v>
+        <v>-0.04393310844898224</v>
       </c>
       <c r="AZ2">
-        <v>-0.005142412148416042</v>
+        <v>-0.00322863832116127</v>
       </c>
       <c r="BA2">
-        <v>0.007192710414528847</v>
+        <v>0.006775940768420696</v>
       </c>
       <c r="BB2">
-        <v>0.04590202122926712</v>
+        <v>0.04756921902298927</v>
       </c>
       <c r="BC2">
-        <v>-0.003672503167763352</v>
+        <v>-0.003863174701109529</v>
       </c>
       <c r="BD2">
-        <v>0.08017392456531525</v>
+        <v>0.07862138748168945</v>
       </c>
       <c r="BE2">
-        <v>-0.004873663187026978</v>
+        <v>-0.005592707078903913</v>
       </c>
       <c r="BF2">
-        <v>0.03844057396054268</v>
+        <v>0.0404200442135334</v>
       </c>
       <c r="BG2">
-        <v>0.02355790883302689</v>
+        <v>0.02190054953098297</v>
       </c>
       <c r="BH2">
-        <v>-0.006827258970588446</v>
+        <v>-0.007635017856955528</v>
       </c>
       <c r="BI2">
-        <v>-0.007708278018981218</v>
+        <v>-0.009265382774174213</v>
       </c>
       <c r="BJ2">
-        <v>0.01965356804430485</v>
+        <v>0.02135061100125313</v>
       </c>
       <c r="BK2">
-        <v>-0.005006532650440931</v>
+        <v>-0.004840164445340633</v>
       </c>
       <c r="BL2">
-        <v>-0.02820657193660736</v>
+        <v>-0.02738521620631218</v>
       </c>
       <c r="BM2">
-        <v>-0.02202283404767513</v>
+        <v>-0.02320804819464684</v>
       </c>
       <c r="BN2">
-        <v>0.03764116019010544</v>
+        <v>0.03781728073954582</v>
       </c>
       <c r="BO2">
-        <v>0.05129044875502586</v>
+        <v>0.0495716966688633</v>
       </c>
       <c r="BP2">
-        <v>0.06125223636627197</v>
+        <v>0.05761947855353355</v>
       </c>
       <c r="BQ2">
-        <v>-0.01363746356219053</v>
+        <v>-0.01374490186572075</v>
       </c>
       <c r="BR2">
-        <v>0.006143490318208933</v>
+        <v>0.00468277744948864</v>
       </c>
       <c r="BS2">
-        <v>-0.001893619308248162</v>
+        <v>-0.001947926823049784</v>
       </c>
       <c r="BT2">
-        <v>-0.003256028052419424</v>
+        <v>-0.002425747457891703</v>
       </c>
       <c r="BU2">
-        <v>0.02836292795836926</v>
+        <v>0.02632716298103333</v>
       </c>
       <c r="BV2">
-        <v>0.09796822816133499</v>
+        <v>0.1003272160887718</v>
       </c>
       <c r="BW2">
-        <v>0.007570112589746714</v>
+        <v>0.007952535524964333</v>
       </c>
       <c r="BX2">
-        <v>0.167508065700531</v>
+        <v>0.1660110801458359</v>
       </c>
       <c r="BY2">
-        <v>0.003535323310643435</v>
+        <v>0.005472005810588598</v>
       </c>
       <c r="BZ2">
-        <v>-0.1676916629076004</v>
+        <v>-0.1698026806116104</v>
       </c>
       <c r="CA2">
-        <v>-0.02925035543739796</v>
+        <v>-0.0275030080229044</v>
       </c>
       <c r="CB2">
-        <v>-0.03482596576213837</v>
+        <v>-0.03762289881706238</v>
       </c>
       <c r="CC2">
-        <v>0.01330913230776787</v>
+        <v>0.01137393619865179</v>
       </c>
       <c r="CD2">
-        <v>-0.0004017235478386283</v>
+        <v>-0.001651758444495499</v>
       </c>
       <c r="CE2">
-        <v>-0.003927921410650015</v>
+        <v>-0.004858853295445442</v>
       </c>
       <c r="CF2">
-        <v>-0.02231557480990887</v>
+        <v>-0.0224994458258152</v>
       </c>
       <c r="CG2">
-        <v>-0.0009072939865291119</v>
+        <v>-0.001249181572347879</v>
       </c>
       <c r="CH2">
-        <v>-0.02663754299283028</v>
+        <v>-0.02484339661896229</v>
       </c>
       <c r="CI2">
-        <v>0.02044369094073772</v>
+        <v>0.01891143061220646</v>
       </c>
       <c r="CJ2">
-        <v>0.05231070891022682</v>
+        <v>0.04811841249465942</v>
       </c>
       <c r="CK2">
-        <v>0.01888227090239525</v>
+        <v>0.01676509529352188</v>
       </c>
       <c r="CL2">
-        <v>-0.005448682233691216</v>
+        <v>-0.006904079113155603</v>
       </c>
       <c r="CM2">
-        <v>0.01075799856334925</v>
+        <v>0.009567035362124443</v>
       </c>
       <c r="CN2">
-        <v>0.002817932981997728</v>
+        <v>0.002615585690364242</v>
       </c>
       <c r="CO2">
-        <v>-0.003403030103072524</v>
+        <v>-0.004544530995190144</v>
       </c>
       <c r="CP2">
-        <v>0.07583433389663696</v>
+        <v>0.07843394577503204</v>
       </c>
       <c r="CQ2">
-        <v>-0.0662785992026329</v>
+        <v>-0.06705792248249054</v>
       </c>
       <c r="CR2">
-        <v>0.005135207902640104</v>
+        <v>0.001085917698219419</v>
       </c>
       <c r="CS2">
-        <v>-0.006439309567213058</v>
+        <v>-0.007822449319064617</v>
       </c>
       <c r="CT2">
-        <v>0.0005645708879455924</v>
+        <v>-0.001322192139923573</v>
       </c>
       <c r="CU2">
-        <v>-0.001162852859124541</v>
+        <v>-0.0003392590151634067</v>
       </c>
       <c r="CV2">
-        <v>0.002606429159641266</v>
+        <v>0.0004369697999209166</v>
       </c>
       <c r="CW2">
-        <v>-0.04425687342882156</v>
+        <v>-0.04510664939880371</v>
       </c>
       <c r="CX2">
-        <v>0.0007018534233793616</v>
+        <v>0.002313017146661878</v>
       </c>
       <c r="CY2">
-        <v>-0.0001008549006655812</v>
+        <v>0.001857765135355294</v>
       </c>
       <c r="CZ2">
-        <v>-0.001979618333280087</v>
+        <v>-0.0007055102032609284</v>
       </c>
       <c r="DA2">
-        <v>-0.01008509751409292</v>
+        <v>-0.01343675050884485</v>
       </c>
       <c r="DB2">
-        <v>-0.05481424927711487</v>
+        <v>-0.05434800684452057</v>
       </c>
       <c r="DC2">
-        <v>-0.005009766202419996</v>
+        <v>-0.007354783825576305</v>
       </c>
       <c r="DD2">
-        <v>0.05399121344089508</v>
+        <v>0.05389704927802086</v>
       </c>
       <c r="DE2">
-        <v>-0.0007203215500339866</v>
+        <v>-0.002080694073811173</v>
       </c>
       <c r="DF2">
-        <v>0.02043167687952518</v>
+        <v>0.02224032953381538</v>
       </c>
       <c r="DG2">
-        <v>0.005793571937829256</v>
+        <v>0.003842341713607311</v>
       </c>
       <c r="DH2">
-        <v>0.009062787517905235</v>
+        <v>0.008129572495818138</v>
       </c>
       <c r="DI2">
-        <v>-0.004034332931041718</v>
+        <v>-0.002685392741113901</v>
       </c>
       <c r="DJ2">
-        <v>-0.03483867272734642</v>
+        <v>-0.03618320450186729</v>
       </c>
       <c r="DK2">
-        <v>-0.05224093794822693</v>
+        <v>-0.05172599479556084</v>
       </c>
       <c r="DL2">
-        <v>-0.07015597820281982</v>
+        <v>-0.069487065076828</v>
       </c>
       <c r="DM2">
-        <v>0.04359668865799904</v>
+        <v>0.04405408725142479</v>
       </c>
       <c r="DN2">
-        <v>-0.08068174123764038</v>
+        <v>-0.08243954926729202</v>
       </c>
       <c r="DO2">
-        <v>-0.01562015525996685</v>
+        <v>-0.01365860551595688</v>
       </c>
       <c r="DP2">
-        <v>-0.01789305731654167</v>
+        <v>-0.01645628735423088</v>
       </c>
       <c r="DQ2">
-        <v>0.00168168731033802</v>
+        <v>0.0003552416164893657</v>
       </c>
       <c r="DR2">
-        <v>0.003576628863811493</v>
+        <v>0.002370748436078429</v>
       </c>
       <c r="DS2">
-        <v>0.008891883306205273</v>
+        <v>0.007455053273588419</v>
       </c>
       <c r="DT2">
-        <v>-0.0414092019200325</v>
+        <v>-0.0416901707649231</v>
       </c>
       <c r="DU2">
-        <v>0.05356494337320328</v>
+        <v>0.05371233820915222</v>
       </c>
       <c r="DV2">
-        <v>-0.003782161045819521</v>
+        <v>-0.003107838099822402</v>
       </c>
       <c r="DW2">
-        <v>-0.001920933835208416</v>
+        <v>0.0004350664676167071</v>
       </c>
       <c r="DX2">
-        <v>0.05885019898414612</v>
+        <v>0.05708738043904305</v>
       </c>
       <c r="DY2">
-        <v>0.02034271880984306</v>
+        <v>0.01726311817765236</v>
       </c>
       <c r="DZ2">
-        <v>0.005923578981310129</v>
+        <v>0.007406919728964567</v>
       </c>
       <c r="EA2">
-        <v>0.007182420697063208</v>
+        <v>0.007487720809876919</v>
       </c>
       <c r="EB2">
-        <v>-0.03960033506155014</v>
+        <v>-0.04099467024207115</v>
       </c>
       <c r="EC2">
-        <v>0.0007971841259859502</v>
+        <v>0.0008677011937834322</v>
       </c>
       <c r="ED2">
-        <v>0.06835475564002991</v>
+        <v>0.06650473177433014</v>
       </c>
       <c r="EE2">
-        <v>0.003248168621212244</v>
+        <v>0.001583990291692317</v>
       </c>
       <c r="EF2">
-        <v>0.03138803690671921</v>
+        <v>0.03157233074307442</v>
       </c>
       <c r="EG2">
-        <v>0.02439934946596622</v>
+        <v>0.02492184564471245</v>
       </c>
       <c r="EH2">
-        <v>-0.1627358645200729</v>
+        <v>-0.1616794914007187</v>
       </c>
       <c r="EI2">
-        <v>0.04318840429186821</v>
+        <v>0.041131891310215</v>
       </c>
       <c r="EJ2">
-        <v>0.03747231513261795</v>
+        <v>0.0362713597714901</v>
       </c>
       <c r="EK2">
-        <v>-0.001807857654057443</v>
+        <v>-0.00326272239908576</v>
       </c>
       <c r="EL2">
-        <v>0.003412972437217832</v>
+        <v>0.002103228820487857</v>
       </c>
       <c r="EM2">
-        <v>0.08654741197824478</v>
+        <v>0.08394015580415726</v>
       </c>
       <c r="EN2">
-        <v>-0.03565259650349617</v>
+        <v>-0.03463470935821533</v>
       </c>
       <c r="EO2">
-        <v>-0.06166302412748337</v>
+        <v>-0.06324896216392517</v>
       </c>
       <c r="EP2">
-        <v>0.02617737837135792</v>
+        <v>0.02776227332651615</v>
       </c>
       <c r="EQ2">
-        <v>0.08107545226812363</v>
+        <v>0.0806502029299736</v>
       </c>
       <c r="ER2">
-        <v>0.003430374665185809</v>
+        <v>0.002769529586657882</v>
       </c>
       <c r="ES2">
-        <v>0.02849626913666725</v>
+        <v>0.02748735435307026</v>
       </c>
       <c r="ET2">
-        <v>0.01646100915968418</v>
+        <v>0.0154331112280488</v>
       </c>
       <c r="EU2">
-        <v>0.009947339072823524</v>
+        <v>0.007948405109345913</v>
       </c>
       <c r="EV2">
-        <v>-0.08148517459630966</v>
+        <v>-0.08103691786527634</v>
       </c>
       <c r="EW2">
-        <v>0.1054839417338371</v>
+        <v>0.1016926988959312</v>
       </c>
       <c r="EX2">
-        <v>-0.02913789823651314</v>
+        <v>-0.03118891827762127</v>
       </c>
       <c r="EY2">
-        <v>-0.01129733305424452</v>
+        <v>-0.01337887346744537</v>
       </c>
       <c r="EZ2">
-        <v>0.007217036094516516</v>
+        <v>0.006252681370824575</v>
       </c>
       <c r="FA2">
-        <v>0.005880313459783792</v>
+        <v>0.002851072698831558</v>
       </c>
       <c r="FB2">
-        <v>-0.00802169181406498</v>
+        <v>-0.009368785656988621</v>
       </c>
       <c r="FC2">
-        <v>-0.09804633259773254</v>
+        <v>-0.09924031049013138</v>
       </c>
       <c r="FD2">
-        <v>0.003625553566962481</v>
+        <v>0.00488540343940258</v>
       </c>
       <c r="FE2">
-        <v>-0.02961986139416695</v>
+        <v>-0.03165864944458008</v>
       </c>
       <c r="FF2">
-        <v>0.03544521331787109</v>
+        <v>0.03580436110496521</v>
       </c>
       <c r="FG2">
-        <v>-0.1574723422527313</v>
+        <v>-0.1562505811452866</v>
       </c>
       <c r="FH2">
-        <v>-0.004737754352390766</v>
+        <v>-0.005580786615610123</v>
       </c>
       <c r="FI2">
-        <v>0.04867866635322571</v>
+        <v>0.0484502799808979</v>
       </c>
       <c r="FJ2">
-        <v>-0.05054031312465668</v>
+        <v>-0.05079679936170578</v>
       </c>
       <c r="FK2">
-        <v>-0.04188107326626778</v>
+        <v>-0.04021652787923813</v>
       </c>
       <c r="FL2">
-        <v>-0.07700025290250778</v>
+        <v>-0.07720696926116943</v>
       </c>
       <c r="FM2">
-        <v>0.00986239779740572</v>
+        <v>0.01057303976267576</v>
       </c>
       <c r="FN2">
-        <v>-0.02727154642343521</v>
+        <v>-0.02615738846361637</v>
       </c>
       <c r="FO2">
-        <v>0.002404942642897367</v>
+        <v>0.004310630261898041</v>
       </c>
       <c r="FP2">
-        <v>-0.004091277252882719</v>
+        <v>-0.001538969576358795</v>
       </c>
       <c r="FQ2">
-        <v>-0.003063562558963895</v>
+        <v>-0.004358942154794931</v>
       </c>
       <c r="FR2">
-        <v>-0.004859354812651873</v>
+        <v>-0.00620226701721549</v>
       </c>
       <c r="FS2">
-        <v>0.003608710831031203</v>
+        <v>0.001861870870925486</v>
       </c>
       <c r="FT2">
-        <v>0.000511336897034198</v>
+        <v>-0.0006844992167316377</v>
       </c>
       <c r="FU2">
-        <v>-0.0708039253950119</v>
+        <v>-0.07263289391994476</v>
       </c>
       <c r="FV2">
-        <v>-0.05106156691908836</v>
+        <v>-0.05319403856992722</v>
       </c>
       <c r="FW2">
-        <v>0.03688206523656845</v>
+        <v>0.0351729616522789</v>
       </c>
       <c r="FX2">
-        <v>-0.0006643205415457487</v>
+        <v>-0.001451314892619848</v>
       </c>
       <c r="FY2">
-        <v>0.007795203942805529</v>
+        <v>0.00831814669072628</v>
       </c>
       <c r="FZ2">
-        <v>-0.00062793173128739</v>
+        <v>-0.00026667769998312</v>
       </c>
       <c r="GA2">
-        <v>0.009519156068563461</v>
+        <v>0.00733733968809247</v>
       </c>
       <c r="GB2">
-        <v>-0.003076834604144096</v>
+        <v>-0.00145562447141856</v>
       </c>
       <c r="GC2">
-        <v>0.009887943975627422</v>
+        <v>0.009692631661891937</v>
       </c>
       <c r="GD2">
-        <v>0.07117746025323868</v>
+        <v>0.0703042671084404</v>
       </c>
       <c r="GE2">
-        <v>0.002174530876800418</v>
+        <v>0.0007197704981081188</v>
       </c>
       <c r="GF2">
-        <v>0.003185617504641414</v>
+        <v>0.004106585867702961</v>
       </c>
       <c r="GG2">
-        <v>-0.09668613970279694</v>
+        <v>-0.09456599503755569</v>
       </c>
       <c r="GH2">
-        <v>-0.001098615699447691</v>
+        <v>-0.0007660859846509993</v>
       </c>
       <c r="GI2">
-        <v>0.03074696101248264</v>
+        <v>0.03028923086822033</v>
       </c>
       <c r="GJ2">
-        <v>0.005850780289620161</v>
+        <v>0.005321417469531298</v>
       </c>
       <c r="GK2">
-        <v>-0.05690082535147667</v>
+        <v>-0.05868499726057053</v>
       </c>
       <c r="GL2">
-        <v>4.874342630500905E-05</v>
+        <v>-0.002129941247403622</v>
       </c>
       <c r="GM2">
-        <v>0.0208275206387043</v>
+        <v>0.01965294033288956</v>
       </c>
       <c r="GN2">
-        <v>-0.02849255502223969</v>
+        <v>-0.02803195640444756</v>
       </c>
       <c r="GO2">
-        <v>0.02974964119493961</v>
+        <v>0.02993856556713581</v>
       </c>
       <c r="GP2">
-        <v>0.002198068657889962</v>
+        <v>0.000551525445189327</v>
       </c>
       <c r="GQ2">
-        <v>0.00327515066601336</v>
+        <v>0.002932062372565269</v>
       </c>
       <c r="GR2">
-        <v>-0.0008989102789200842</v>
+        <v>-0.001666597789153457</v>
       </c>
       <c r="GS2">
-        <v>0.00992950052022934</v>
+        <v>0.01196291390806437</v>
       </c>
       <c r="GT2">
-        <v>0.002440502401441336</v>
+        <v>0.002108674729242921</v>
       </c>
       <c r="GU2">
-        <v>-0.01480526477098465</v>
+        <v>-0.01302796509116888</v>
       </c>
       <c r="GV2">
-        <v>-0.005232292227447033</v>
+        <v>-0.004891316872090101</v>
       </c>
       <c r="GW2">
-        <v>0.05420908704400063</v>
+        <v>0.05486519634723663</v>
       </c>
       <c r="GX2">
-        <v>0.004110267385840416</v>
+        <v>0.002377392491325736</v>
       </c>
       <c r="GY2">
-        <v>0.004789408296346664</v>
+        <v>0.003199092810973525</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Multi Nationals.xlsx
+++ b/static/Models/Regression/Equation/Multi Nationals.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.03033973090350628</v>
+        <v>-0.03049074485898018</v>
       </c>
       <c r="C2">
-        <v>-0.02519872784614563</v>
+        <v>-0.02641306445002556</v>
       </c>
       <c r="D2">
-        <v>0.05280487984418869</v>
+        <v>0.05699728801846504</v>
       </c>
       <c r="E2">
-        <v>0.04495800659060478</v>
+        <v>0.04118167608976364</v>
       </c>
       <c r="F2">
-        <v>-0.006898739375174046</v>
+        <v>-0.005073373205959797</v>
       </c>
       <c r="G2">
-        <v>0.00967935286462307</v>
+        <v>0.01123854331672192</v>
       </c>
       <c r="H2">
-        <v>0.001887504127807915</v>
+        <v>-0.002652646275237203</v>
       </c>
       <c r="I2">
-        <v>-0.01154674682766199</v>
+        <v>-0.01024425961077213</v>
       </c>
       <c r="J2">
-        <v>0.1047534570097923</v>
+        <v>0.1065497025847435</v>
       </c>
       <c r="K2">
-        <v>0.003473023185506463</v>
+        <v>0.002175495494157076</v>
       </c>
       <c r="L2">
-        <v>0.006274253129959106</v>
+        <v>0.005595052614808083</v>
       </c>
       <c r="M2">
-        <v>-0.004795611370354891</v>
+        <v>-0.003820916172116995</v>
       </c>
       <c r="N2">
-        <v>-0.0007130359299480915</v>
+        <v>-0.0001278905110666528</v>
       </c>
       <c r="O2">
-        <v>0.009094291366636753</v>
+        <v>0.008467141538858414</v>
       </c>
       <c r="P2">
-        <v>0.02272619865834713</v>
+        <v>0.02226600795984268</v>
       </c>
       <c r="Q2">
-        <v>-0.1187001392245293</v>
+        <v>-0.1267187148332596</v>
       </c>
       <c r="R2">
-        <v>-0.008944998495280743</v>
+        <v>-0.007005087565630674</v>
       </c>
       <c r="S2">
-        <v>0.05010304227471352</v>
+        <v>0.05014966800808907</v>
       </c>
       <c r="T2">
-        <v>-0.05881635099649429</v>
+        <v>-0.05746894329786301</v>
       </c>
       <c r="U2">
-        <v>0.04695384204387665</v>
+        <v>0.04752691090106964</v>
       </c>
       <c r="V2">
-        <v>0.005813007708638906</v>
+        <v>0.01132623199373484</v>
       </c>
       <c r="W2">
-        <v>-0.02199769206345081</v>
+        <v>-0.02227966114878654</v>
       </c>
       <c r="X2">
-        <v>0.01090500503778458</v>
+        <v>0.00894601084291935</v>
       </c>
       <c r="Y2">
-        <v>0.06864082813262939</v>
+        <v>0.06515853852033615</v>
       </c>
       <c r="Z2">
-        <v>0.006269807927310467</v>
+        <v>0.003766448237001896</v>
       </c>
       <c r="AA2">
-        <v>-0.004747811704874039</v>
+        <v>-0.002917827805504203</v>
       </c>
       <c r="AB2">
-        <v>0.04304984211921692</v>
+        <v>0.0393235981464386</v>
       </c>
       <c r="AC2">
-        <v>-0.01923034898936749</v>
+        <v>-0.0180793534964323</v>
       </c>
       <c r="AD2">
-        <v>-0.06320957839488983</v>
+        <v>-0.06160296872258186</v>
       </c>
       <c r="AE2">
-        <v>-0.0398068018257618</v>
+        <v>-0.04328912124037743</v>
       </c>
       <c r="AF2">
-        <v>0.005182505119591951</v>
+        <v>0.006397384684532881</v>
       </c>
       <c r="AG2">
-        <v>-0.02404402941465378</v>
+        <v>-0.02341967448592186</v>
       </c>
       <c r="AH2">
-        <v>-0.0170135386288166</v>
+        <v>-0.01769729144871235</v>
       </c>
       <c r="AI2">
-        <v>-0.016904192045331</v>
+        <v>-0.02226365730166435</v>
       </c>
       <c r="AJ2">
-        <v>0.006303939968347549</v>
+        <v>0.007322545628994703</v>
       </c>
       <c r="AK2">
-        <v>-0.006555226631462574</v>
+        <v>-0.004864320158958435</v>
       </c>
       <c r="AL2">
-        <v>-0.004636608529835939</v>
+        <v>-0.00498349592089653</v>
       </c>
       <c r="AM2">
-        <v>0.0487680658698082</v>
+        <v>0.04223195463418961</v>
       </c>
       <c r="AN2">
-        <v>0.01786108687520027</v>
+        <v>0.01930009759962559</v>
       </c>
       <c r="AO2">
-        <v>-0.04785722494125366</v>
+        <v>-0.04824492707848549</v>
       </c>
       <c r="AP2">
-        <v>-0.05266710370779037</v>
+        <v>-0.0519656278192997</v>
       </c>
       <c r="AQ2">
-        <v>0.01134825963526964</v>
+        <v>0.005897755268961191</v>
       </c>
       <c r="AR2">
-        <v>0.05555933713912964</v>
+        <v>0.05177728459239006</v>
       </c>
       <c r="AS2">
-        <v>-0.0499645471572876</v>
+        <v>-0.04536620154976845</v>
       </c>
       <c r="AT2">
-        <v>-8.677498408360407E-05</v>
+        <v>-0.003342592157423496</v>
       </c>
       <c r="AU2">
-        <v>-0.04839447513222694</v>
+        <v>-0.04933786019682884</v>
       </c>
       <c r="AV2">
-        <v>0.00474582938477397</v>
+        <v>0.004314794205129147</v>
       </c>
       <c r="AW2">
-        <v>0.01661962270736694</v>
+        <v>0.01530057284981012</v>
       </c>
       <c r="AX2">
-        <v>-0.06426490843296051</v>
+        <v>-0.0644814670085907</v>
       </c>
       <c r="AY2">
-        <v>-0.04393310844898224</v>
+        <v>-0.04280748963356018</v>
       </c>
       <c r="AZ2">
-        <v>-0.00322863832116127</v>
+        <v>-0.007437930908054113</v>
       </c>
       <c r="BA2">
-        <v>0.006775940768420696</v>
+        <v>0.004734798800200224</v>
       </c>
       <c r="BB2">
-        <v>0.04756921902298927</v>
+        <v>0.04406390711665154</v>
       </c>
       <c r="BC2">
-        <v>-0.003863174701109529</v>
+        <v>-0.007270867470651865</v>
       </c>
       <c r="BD2">
-        <v>0.07862138748168945</v>
+        <v>0.08007408678531647</v>
       </c>
       <c r="BE2">
-        <v>-0.005592707078903913</v>
+        <v>-0.006440137047320604</v>
       </c>
       <c r="BF2">
-        <v>0.0404200442135334</v>
+        <v>0.03826585412025452</v>
       </c>
       <c r="BG2">
-        <v>0.02190054953098297</v>
+        <v>0.02335427328944206</v>
       </c>
       <c r="BH2">
-        <v>-0.007635017856955528</v>
+        <v>-0.008047749288380146</v>
       </c>
       <c r="BI2">
-        <v>-0.009265382774174213</v>
+        <v>-0.007930964231491089</v>
       </c>
       <c r="BJ2">
-        <v>0.02135061100125313</v>
+        <v>0.02245130948722363</v>
       </c>
       <c r="BK2">
-        <v>-0.004840164445340633</v>
+        <v>-0.001646438147872686</v>
       </c>
       <c r="BL2">
-        <v>-0.02738521620631218</v>
+        <v>-0.02813602052628994</v>
       </c>
       <c r="BM2">
-        <v>-0.02320804819464684</v>
+        <v>-0.02162760496139526</v>
       </c>
       <c r="BN2">
-        <v>0.03781728073954582</v>
+        <v>0.04229468107223511</v>
       </c>
       <c r="BO2">
-        <v>0.0495716966688633</v>
+        <v>0.05142158642411232</v>
       </c>
       <c r="BP2">
-        <v>0.05761947855353355</v>
+        <v>0.05759155377745628</v>
       </c>
       <c r="BQ2">
-        <v>-0.01374490186572075</v>
+        <v>-0.01740303449332714</v>
       </c>
       <c r="BR2">
-        <v>0.00468277744948864</v>
+        <v>0.007928322069346905</v>
       </c>
       <c r="BS2">
-        <v>-0.001947926823049784</v>
+        <v>-0.002492309082299471</v>
       </c>
       <c r="BT2">
-        <v>-0.002425747457891703</v>
+        <v>-0.001560422126203775</v>
       </c>
       <c r="BU2">
-        <v>0.02632716298103333</v>
+        <v>0.02799120731651783</v>
       </c>
       <c r="BV2">
-        <v>0.1003272160887718</v>
+        <v>0.1019419729709625</v>
       </c>
       <c r="BW2">
-        <v>0.007952535524964333</v>
+        <v>-0.0001754497934598476</v>
       </c>
       <c r="BX2">
-        <v>0.1660110801458359</v>
+        <v>0.1671734303236008</v>
       </c>
       <c r="BY2">
-        <v>0.005472005810588598</v>
+        <v>0.008688661269843578</v>
       </c>
       <c r="BZ2">
-        <v>-0.1698026806116104</v>
+        <v>-0.1676453948020935</v>
       </c>
       <c r="CA2">
-        <v>-0.0275030080229044</v>
+        <v>-0.02852397225797176</v>
       </c>
       <c r="CB2">
-        <v>-0.03762289881706238</v>
+        <v>-0.04362417384982109</v>
       </c>
       <c r="CC2">
-        <v>0.01137393619865179</v>
+        <v>0.01304521132260561</v>
       </c>
       <c r="CD2">
-        <v>-0.001651758444495499</v>
+        <v>-0.004958448000252247</v>
       </c>
       <c r="CE2">
-        <v>-0.004858853295445442</v>
+        <v>-0.005913618486374617</v>
       </c>
       <c r="CF2">
-        <v>-0.0224994458258152</v>
+        <v>-0.02387645654380322</v>
       </c>
       <c r="CG2">
-        <v>-0.001249181572347879</v>
+        <v>-0.001513972296379507</v>
       </c>
       <c r="CH2">
-        <v>-0.02484339661896229</v>
+        <v>-0.02233307994902134</v>
       </c>
       <c r="CI2">
-        <v>0.01891143061220646</v>
+        <v>0.02064664103090763</v>
       </c>
       <c r="CJ2">
-        <v>0.04811841249465942</v>
+        <v>0.04861535876989365</v>
       </c>
       <c r="CK2">
-        <v>0.01676509529352188</v>
+        <v>0.01935268752276897</v>
       </c>
       <c r="CL2">
-        <v>-0.006904079113155603</v>
+        <v>-0.005989054683595896</v>
       </c>
       <c r="CM2">
-        <v>0.009567035362124443</v>
+        <v>0.01245529111474752</v>
       </c>
       <c r="CN2">
-        <v>0.002615585690364242</v>
+        <v>-0.002171567641198635</v>
       </c>
       <c r="CO2">
-        <v>-0.004544530995190144</v>
+        <v>-0.003035689238458872</v>
       </c>
       <c r="CP2">
-        <v>0.07843394577503204</v>
+        <v>0.07772301137447357</v>
       </c>
       <c r="CQ2">
-        <v>-0.06705792248249054</v>
+        <v>-0.06878999620676041</v>
       </c>
       <c r="CR2">
-        <v>0.001085917698219419</v>
+        <v>-0.006725908722728491</v>
       </c>
       <c r="CS2">
-        <v>-0.007822449319064617</v>
+        <v>-0.004938316997140646</v>
       </c>
       <c r="CT2">
-        <v>-0.001322192139923573</v>
+        <v>0.0003810214402619749</v>
       </c>
       <c r="CU2">
-        <v>-0.0003392590151634067</v>
+        <v>0.001964146504178643</v>
       </c>
       <c r="CV2">
-        <v>0.0004369697999209166</v>
+        <v>0.0007374950801022351</v>
       </c>
       <c r="CW2">
-        <v>-0.04510664939880371</v>
+        <v>-0.04623151198029518</v>
       </c>
       <c r="CX2">
-        <v>0.002313017146661878</v>
+        <v>-0.0009769224561750889</v>
       </c>
       <c r="CY2">
-        <v>0.001857765135355294</v>
+        <v>0.0005868420703336596</v>
       </c>
       <c r="CZ2">
-        <v>-0.0007055102032609284</v>
+        <v>0.00119202071800828</v>
       </c>
       <c r="DA2">
-        <v>-0.01343675050884485</v>
+        <v>-0.01384432800114155</v>
       </c>
       <c r="DB2">
-        <v>-0.05434800684452057</v>
+        <v>-0.05493844300508499</v>
       </c>
       <c r="DC2">
-        <v>-0.007354783825576305</v>
+        <v>-0.01087936200201511</v>
       </c>
       <c r="DD2">
-        <v>0.05389704927802086</v>
+        <v>0.05486546456813812</v>
       </c>
       <c r="DE2">
-        <v>-0.002080694073811173</v>
+        <v>0.0002399331715423614</v>
       </c>
       <c r="DF2">
-        <v>0.02224032953381538</v>
+        <v>0.02133458480238914</v>
       </c>
       <c r="DG2">
-        <v>0.003842341713607311</v>
+        <v>0.0007499295752495527</v>
       </c>
       <c r="DH2">
-        <v>0.008129572495818138</v>
+        <v>0.008207062259316444</v>
       </c>
       <c r="DI2">
-        <v>-0.002685392741113901</v>
+        <v>0.001592887798324227</v>
       </c>
       <c r="DJ2">
-        <v>-0.03618320450186729</v>
+        <v>-0.03765800595283508</v>
       </c>
       <c r="DK2">
-        <v>-0.05172599479556084</v>
+        <v>-0.04784334450960159</v>
       </c>
       <c r="DL2">
-        <v>-0.069487065076828</v>
+        <v>-0.06688019633293152</v>
       </c>
       <c r="DM2">
-        <v>0.04405408725142479</v>
+        <v>0.04370347410440445</v>
       </c>
       <c r="DN2">
-        <v>-0.08243954926729202</v>
+        <v>-0.08088009804487228</v>
       </c>
       <c r="DO2">
-        <v>-0.01365860551595688</v>
+        <v>-0.01666896790266037</v>
       </c>
       <c r="DP2">
-        <v>-0.01645628735423088</v>
+        <v>-0.01707851141691208</v>
       </c>
       <c r="DQ2">
-        <v>0.0003552416164893657</v>
+        <v>0.002500572707504034</v>
       </c>
       <c r="DR2">
-        <v>0.002370748436078429</v>
+        <v>0.004203224554657936</v>
       </c>
       <c r="DS2">
-        <v>0.007455053273588419</v>
+        <v>0.008886832743883133</v>
       </c>
       <c r="DT2">
-        <v>-0.0416901707649231</v>
+        <v>-0.03575233742594719</v>
       </c>
       <c r="DU2">
-        <v>0.05371233820915222</v>
+        <v>0.05124012753367424</v>
       </c>
       <c r="DV2">
-        <v>-0.003107838099822402</v>
+        <v>-0.00335908867418766</v>
       </c>
       <c r="DW2">
-        <v>0.0004350664676167071</v>
+        <v>0.00236478284932673</v>
       </c>
       <c r="DX2">
-        <v>0.05708738043904305</v>
+        <v>0.05853894352912903</v>
       </c>
       <c r="DY2">
-        <v>0.01726311817765236</v>
+        <v>0.02203340828418732</v>
       </c>
       <c r="DZ2">
-        <v>0.007406919728964567</v>
+        <v>0.006979363039135933</v>
       </c>
       <c r="EA2">
-        <v>0.007487720809876919</v>
+        <v>0.00874205119907856</v>
       </c>
       <c r="EB2">
-        <v>-0.04099467024207115</v>
+        <v>-0.03944827243685722</v>
       </c>
       <c r="EC2">
-        <v>0.0008677011937834322</v>
+        <v>0.005713722202926874</v>
       </c>
       <c r="ED2">
-        <v>0.06650473177433014</v>
+        <v>0.06789824366569519</v>
       </c>
       <c r="EE2">
-        <v>0.001583990291692317</v>
+        <v>0.003216337412595749</v>
       </c>
       <c r="EF2">
-        <v>0.03157233074307442</v>
+        <v>0.02894911170005798</v>
       </c>
       <c r="EG2">
-        <v>0.02492184564471245</v>
+        <v>0.02456998080015182</v>
       </c>
       <c r="EH2">
-        <v>-0.1616794914007187</v>
+        <v>-0.1605589389801025</v>
       </c>
       <c r="EI2">
-        <v>0.041131891310215</v>
+        <v>0.04310771822929382</v>
       </c>
       <c r="EJ2">
-        <v>0.0362713597714901</v>
+        <v>0.03384279832243919</v>
       </c>
       <c r="EK2">
-        <v>-0.00326272239908576</v>
+        <v>-0.001898074406199157</v>
       </c>
       <c r="EL2">
-        <v>0.002103228820487857</v>
+        <v>0.003261216217651963</v>
       </c>
       <c r="EM2">
-        <v>0.08394015580415726</v>
+        <v>0.08078934997320175</v>
       </c>
       <c r="EN2">
-        <v>-0.03463470935821533</v>
+        <v>-0.03119784034788609</v>
       </c>
       <c r="EO2">
-        <v>-0.06324896216392517</v>
+        <v>-0.06223364919424057</v>
       </c>
       <c r="EP2">
-        <v>0.02776227332651615</v>
+        <v>0.02643227018415928</v>
       </c>
       <c r="EQ2">
-        <v>0.0806502029299736</v>
+        <v>0.07631512731313705</v>
       </c>
       <c r="ER2">
-        <v>0.002769529586657882</v>
+        <v>0.00343800219707191</v>
       </c>
       <c r="ES2">
-        <v>0.02748735435307026</v>
+        <v>0.02580869756639004</v>
       </c>
       <c r="ET2">
-        <v>0.0154331112280488</v>
+        <v>0.01786239445209503</v>
       </c>
       <c r="EU2">
-        <v>0.007948405109345913</v>
+        <v>0.0137006314471364</v>
       </c>
       <c r="EV2">
-        <v>-0.08103691786527634</v>
+        <v>-0.07441840320825577</v>
       </c>
       <c r="EW2">
-        <v>0.1016926988959312</v>
+        <v>0.1074547544121742</v>
       </c>
       <c r="EX2">
-        <v>-0.03118891827762127</v>
+        <v>-0.03057764656841755</v>
       </c>
       <c r="EY2">
-        <v>-0.01337887346744537</v>
+        <v>-0.0121607780456543</v>
       </c>
       <c r="EZ2">
-        <v>0.006252681370824575</v>
+        <v>0.008973672986030579</v>
       </c>
       <c r="FA2">
-        <v>0.002851072698831558</v>
+        <v>0.00788363441824913</v>
       </c>
       <c r="FB2">
-        <v>-0.009368785656988621</v>
+        <v>-0.006872936151921749</v>
       </c>
       <c r="FC2">
-        <v>-0.09924031049013138</v>
+        <v>-0.1009586229920387</v>
       </c>
       <c r="FD2">
-        <v>0.00488540343940258</v>
+        <v>0.006532479077577591</v>
       </c>
       <c r="FE2">
-        <v>-0.03165864944458008</v>
+        <v>-0.03165182843804359</v>
       </c>
       <c r="FF2">
-        <v>0.03580436110496521</v>
+        <v>0.03901447355747223</v>
       </c>
       <c r="FG2">
-        <v>-0.1562505811452866</v>
+        <v>-0.1535547077655792</v>
       </c>
       <c r="FH2">
-        <v>-0.005580786615610123</v>
+        <v>-0.002417444251477718</v>
       </c>
       <c r="FI2">
-        <v>0.0484502799808979</v>
+        <v>0.05446994677186012</v>
       </c>
       <c r="FJ2">
-        <v>-0.05079679936170578</v>
+        <v>-0.05241504311561584</v>
       </c>
       <c r="FK2">
-        <v>-0.04021652787923813</v>
+        <v>-0.04081104323267937</v>
       </c>
       <c r="FL2">
-        <v>-0.07720696926116943</v>
+        <v>-0.07706903666257858</v>
       </c>
       <c r="FM2">
-        <v>0.01057303976267576</v>
+        <v>0.009388139471411705</v>
       </c>
       <c r="FN2">
-        <v>-0.02615738846361637</v>
+        <v>-0.02722474560141563</v>
       </c>
       <c r="FO2">
-        <v>0.004310630261898041</v>
+        <v>0.001830515568144619</v>
       </c>
       <c r="FP2">
-        <v>-0.001538969576358795</v>
+        <v>0.0005380462971515954</v>
       </c>
       <c r="FQ2">
-        <v>-0.004358942154794931</v>
+        <v>-0.003410125849768519</v>
       </c>
       <c r="FR2">
-        <v>-0.00620226701721549</v>
+        <v>-0.004161213990300894</v>
       </c>
       <c r="FS2">
-        <v>0.001861870870925486</v>
+        <v>0.003511898219585419</v>
       </c>
       <c r="FT2">
-        <v>-0.0006844992167316377</v>
+        <v>0.0006705535342916846</v>
       </c>
       <c r="FU2">
-        <v>-0.07263289391994476</v>
+        <v>-0.07134329527616501</v>
       </c>
       <c r="FV2">
-        <v>-0.05319403856992722</v>
+        <v>-0.05086991563439369</v>
       </c>
       <c r="FW2">
-        <v>0.0351729616522789</v>
+        <v>0.03658954799175262</v>
       </c>
       <c r="FX2">
-        <v>-0.001451314892619848</v>
+        <v>-0.001678905915468931</v>
       </c>
       <c r="FY2">
-        <v>0.00831814669072628</v>
+        <v>0.006991858128458261</v>
       </c>
       <c r="FZ2">
-        <v>-0.00026667769998312</v>
+        <v>0.005487361922860146</v>
       </c>
       <c r="GA2">
-        <v>0.00733733968809247</v>
+        <v>0.00822732225060463</v>
       </c>
       <c r="GB2">
-        <v>-0.00145562447141856</v>
+        <v>-0.003313399851322174</v>
       </c>
       <c r="GC2">
-        <v>0.009692631661891937</v>
+        <v>0.007089498918503523</v>
       </c>
       <c r="GD2">
-        <v>0.0703042671084404</v>
+        <v>0.06920706480741501</v>
       </c>
       <c r="GE2">
-        <v>0.0007197704981081188</v>
+        <v>0.001534178736619651</v>
       </c>
       <c r="GF2">
-        <v>0.004106585867702961</v>
+        <v>0.004483848344534636</v>
       </c>
       <c r="GG2">
-        <v>-0.09456599503755569</v>
+        <v>-0.09208432585000992</v>
       </c>
       <c r="GH2">
-        <v>-0.0007660859846509993</v>
+        <v>-0.000493230763822794</v>
       </c>
       <c r="GI2">
-        <v>0.03028923086822033</v>
+        <v>0.02994971536099911</v>
       </c>
       <c r="GJ2">
-        <v>0.005321417469531298</v>
+        <v>0.01080717146396637</v>
       </c>
       <c r="GK2">
-        <v>-0.05868499726057053</v>
+        <v>-0.05810195207595825</v>
       </c>
       <c r="GL2">
-        <v>-0.002129941247403622</v>
+        <v>-0.00476459413766861</v>
       </c>
       <c r="GM2">
-        <v>0.01965294033288956</v>
+        <v>0.01716725341975689</v>
       </c>
       <c r="GN2">
-        <v>-0.02803195640444756</v>
+        <v>-0.02855635993182659</v>
       </c>
       <c r="GO2">
-        <v>0.02993856556713581</v>
+        <v>0.03600348904728889</v>
       </c>
       <c r="GP2">
-        <v>0.000551525445189327</v>
+        <v>0.002234418876469135</v>
       </c>
       <c r="GQ2">
-        <v>0.002932062372565269</v>
+        <v>-0.001597199123352766</v>
       </c>
       <c r="GR2">
-        <v>-0.001666597789153457</v>
+        <v>0.001709953299723566</v>
       </c>
       <c r="GS2">
-        <v>0.01196291390806437</v>
+        <v>0.01212380453944206</v>
       </c>
       <c r="GT2">
-        <v>0.002108674729242921</v>
+        <v>0.001849960419349372</v>
       </c>
       <c r="GU2">
-        <v>-0.01302796509116888</v>
+        <v>-0.01407295558601618</v>
       </c>
       <c r="GV2">
-        <v>-0.004891316872090101</v>
+        <v>-0.003024592762812972</v>
       </c>
       <c r="GW2">
-        <v>0.05486519634723663</v>
+        <v>0.05382940173149109</v>
       </c>
       <c r="GX2">
-        <v>0.002377392491325736</v>
+        <v>0.003108131932094693</v>
       </c>
       <c r="GY2">
-        <v>0.003199092810973525</v>
+        <v>0.004644586239010096</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Multi Nationals.xlsx
+++ b/static/Models/Regression/Equation/Multi Nationals.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.02797305583953857</v>
+        <v>-0.02564822509884834</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.02959574572741985</v>
+        <v>-0.02671809867024422</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05350739508867264</v>
+        <v>0.05438163504004478</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04141011834144592</v>
+        <v>0.04101941734552383</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01002303883433342</v>
+        <v>-0.007400821428745985</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01658270321786404</v>
+        <v>0.01841784082353115</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0006735863862559199</v>
+        <v>0.003018377348780632</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01042101718485355</v>
+        <v>-0.008936238475143909</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1097171455621719</v>
+        <v>0.1118906512856483</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001767708454281092</v>
+        <v>0.00150837458204478</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009474238380789757</v>
+        <v>0.01226915884763002</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.006595511920750141</v>
+        <v>-0.008927612565457821</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002712203422561288</v>
+        <v>0.006192705128341913</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01189329102635384</v>
+        <v>0.0088639035820961</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02537059225142002</v>
+        <v>0.0284012071788311</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1246004551649094</v>
+        <v>-0.1222248151898384</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.001844595419242978</v>
+        <v>-0.002080685924738646</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04912614449858665</v>
+        <v>0.04979701712727547</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.058818269520998</v>
+        <v>-0.05745059996843338</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04751768335700035</v>
+        <v>0.0500786080956459</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01037661451846361</v>
+        <v>0.008760868571698666</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.02144105918705463</v>
+        <v>-0.02149072289466858</v>
       </c>
       <c r="X2" t="n">
-        <v>0.003625088836997747</v>
+        <v>0.001313174958340824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0675690546631813</v>
+        <v>0.06812281906604767</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.0004410833353176713</v>
+        <v>0.002097731456160545</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.0032474126201123</v>
+        <v>-0.004855913575738668</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.03535019606351852</v>
+        <v>0.03599287942051888</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0175605770200491</v>
+        <v>-0.01486184541136026</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.06234781071543694</v>
+        <v>-0.06175798550248146</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.04598568379878998</v>
+        <v>-0.04361533746123314</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.01115627307444811</v>
+        <v>0.008444442413747311</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.02398581244051456</v>
+        <v>-0.02147844806313515</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.01984978280961514</v>
+        <v>-0.01728840544819832</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.0250060148537159</v>
+        <v>-0.02600721456110477</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.003856353461742401</v>
+        <v>0.003412539372220635</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.009938919916749001</v>
+        <v>-0.01156063098460436</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.002517617307603359</v>
+        <v>-0.004339433275163174</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.03871798515319824</v>
+        <v>0.04024079814553261</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.02330766431987286</v>
+        <v>0.0219614040106535</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.05163034796714783</v>
+        <v>-0.05572469905018806</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.05225240811705589</v>
+        <v>-0.05028684809803963</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.01015383657068014</v>
+        <v>0.007392746862024069</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.05190024897456169</v>
+        <v>0.05478189885616302</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.04210135713219643</v>
+        <v>-0.04315991699695587</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.0006454068934544921</v>
+        <v>-0.001901415875181556</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.04900665208697319</v>
+        <v>-0.05110267177224159</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.006679084617644548</v>
+        <v>0.00849983561784029</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.01679565198719501</v>
+        <v>0.01488795876502991</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.06954392045736313</v>
+        <v>-0.06651454418897629</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.03956643864512444</v>
+        <v>-0.0411209762096405</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.003635281231254339</v>
+        <v>-0.003847879590466619</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.004116828087717295</v>
+        <v>0.003411978716030717</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.04539408534765244</v>
+        <v>0.04777108505368233</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.01103077363222837</v>
+        <v>-0.008051573298871517</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.07953797280788422</v>
+        <v>0.07996717095375061</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.01020960230380297</v>
+        <v>-0.01161694806069136</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.03489996120333672</v>
+        <v>0.03808098286390305</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.02250499837100506</v>
+        <v>0.02400565519928932</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.003533312352374196</v>
+        <v>-0.008212470449507236</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.008592464029788971</v>
+        <v>-0.007476643193513155</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.02488221414387226</v>
+        <v>0.02558874897658825</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.006536795757710934</v>
+        <v>-0.003757594153285027</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.02571219950914383</v>
+        <v>-0.02345739491283894</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.01780036091804504</v>
+        <v>-0.01607557386159897</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.04594555497169495</v>
+        <v>0.04317071661353111</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.05122099444270134</v>
+        <v>0.05276714637875557</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0560835525393486</v>
+        <v>0.05840732902288437</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.01759745366871357</v>
+        <v>-0.01530852168798447</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.005038923118263483</v>
+        <v>0.004772957880049944</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0006269598379731178</v>
+        <v>-0.002959769917652011</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.003302120137959719</v>
+        <v>-0.005012669134885073</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.02639473415911198</v>
+        <v>0.02814859710633755</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.1070405095815659</v>
+        <v>0.1074816212058067</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.0008251264225691557</v>
+        <v>-0.00374651001766324</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.1706351190805435</v>
+        <v>0.1730251461267471</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.006586810108274221</v>
+        <v>0.008928141556680202</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.1653790473937988</v>
+        <v>-0.1631708443164825</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.02833161316812038</v>
+        <v>-0.03003769554197788</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.04556013643741608</v>
+        <v>-0.04841163009405136</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.01209936756640673</v>
+        <v>0.01395813096314669</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.000902919506188482</v>
+        <v>-0.0003052791289519519</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.008402369916439056</v>
+        <v>-0.01172475144267082</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.02404668740928173</v>
+        <v>-0.02153638377785683</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.003770167706534266</v>
+        <v>0.00508165592327714</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.02381734922528267</v>
+        <v>-0.02600562758743763</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.01980278827250004</v>
+        <v>0.02033992297947407</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.04807793721556664</v>
+        <v>0.05146284401416779</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.01903161406517029</v>
+        <v>0.02137883007526398</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.006783532444387674</v>
+        <v>-0.005299508571624756</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.01123862061649561</v>
+        <v>0.009192734025418758</v>
       </c>
       <c r="CN2" t="n">
-        <v>6.22752049821429e-05</v>
+        <v>0.004063472617417574</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.003702414920553565</v>
+        <v>-0.003509244183078408</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.07649083435535431</v>
+        <v>0.07925054430961609</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.06847546249628067</v>
+        <v>-0.06964720040559769</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.001471894327551126</v>
+        <v>-0.004431742709130049</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.005992170423269272</v>
+        <v>-0.008043709211051464</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.000180371556780301</v>
+        <v>0.001683914451859891</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.001535821240395308</v>
+        <v>-0.001225965097546577</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.002725899219512939</v>
+        <v>0.001341980998404324</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.04305886849761009</v>
+        <v>-0.04135847836732864</v>
       </c>
       <c r="CX2" t="n">
-        <v>5.956391760264523e-05</v>
+        <v>0.002486515324562788</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.001291680731810629</v>
+        <v>-0.0002799612411763519</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.00140812317840755</v>
+        <v>-0.00029344781069085</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.007848474197089672</v>
+        <v>-0.01048977673053741</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.05343892425298691</v>
+        <v>-0.05143115669488907</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.009662621654570103</v>
+        <v>-0.006918293889611959</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.05692850053310394</v>
+        <v>0.05933142080903053</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.001270206877961755</v>
+        <v>-0.003296484239399433</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.02243515849113464</v>
+        <v>0.02463153377175331</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.006620321422815323</v>
+        <v>0.00467339064925909</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.002712707500904799</v>
+        <v>0.005129298660904169</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.0007681786664761603</v>
+        <v>-0.0009627042454667389</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.0328693613409996</v>
+        <v>-0.0317482054233551</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.04260074347257614</v>
+        <v>-0.04525696486234665</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.06391502171754837</v>
+        <v>-0.06371289491653442</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.03977315127849579</v>
+        <v>0.03825791552662849</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.08145527541637421</v>
+        <v>-0.0800071507692337</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.01576399616897106</v>
+        <v>-0.01303356885910034</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.0153091661632061</v>
+        <v>-0.01289226673543453</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.001702639157883823</v>
+        <v>-0.0003653292369563133</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.001375623280182481</v>
+        <v>0.004481000825762749</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.003320277901366353</v>
+        <v>0.006423319224268198</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.04012780636548996</v>
+        <v>-0.04229919612407684</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.05547334626317024</v>
+        <v>0.05751020088791847</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.002598865889012814</v>
+        <v>-0.001108419266529381</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.001575018279254436</v>
+        <v>-0.004502068739384413</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.05795874446630478</v>
+        <v>0.05923368409276009</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0195184014737606</v>
+        <v>0.02555434964597225</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.007782756350934505</v>
+        <v>0.007905511185526848</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.01175407413393259</v>
+        <v>0.01309323031455278</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.03990639001131058</v>
+        <v>-0.03956989198923111</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.007650186773389578</v>
+        <v>0.006527433637529612</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.06638306379318237</v>
+        <v>0.06766709685325623</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.002750231884419918</v>
+        <v>0.002885451074689627</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.02328530140221119</v>
+        <v>0.0267730001360178</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0204459298402071</v>
+        <v>0.02139538526535034</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.155551940202713</v>
+        <v>-0.1533425748348236</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.04359319433569908</v>
+        <v>0.04588913917541504</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0340053103864193</v>
+        <v>0.03697289526462555</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.002691050991415977</v>
+        <v>-0.0009464345639571548</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.002554595004767179</v>
+        <v>0.002642243867740035</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.07613952457904816</v>
+        <v>0.07875331491231918</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.0344221405684948</v>
+        <v>-0.03186164796352386</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.05669911205768585</v>
+        <v>-0.05683116242289543</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.02198027819395065</v>
+        <v>0.02347175404429436</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.06943804025650024</v>
+        <v>0.07217266410589218</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.007433521095663309</v>
+        <v>0.005203095730394125</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.02858180738985538</v>
+        <v>0.03052050992846489</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02050222456455231</v>
+        <v>0.02351238392293453</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.009406129829585552</v>
+        <v>0.009176837280392647</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.07212457805871964</v>
+        <v>-0.06951436400413513</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.1020892560482025</v>
+        <v>0.103567972779274</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.02851418778300285</v>
+        <v>-0.02922677062451839</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.01386093627661467</v>
+        <v>-0.01281089708209038</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.006749843712896109</v>
+        <v>0.008508210070431232</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.004331610631197691</v>
+        <v>0.005784124135971069</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.008011451922357082</v>
+        <v>-0.009974794462323189</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.09687259793281555</v>
+        <v>-0.09428119659423828</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.008078702725470066</v>
+        <v>0.006424815393984318</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.03483470156788826</v>
+        <v>-0.03238670155405998</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.03925058245658875</v>
+        <v>0.04112490639090538</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.1546953767538071</v>
+        <v>-0.1566204726696014</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0007583571714349091</v>
+        <v>-0.002596917096525431</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.04648837447166443</v>
+        <v>0.0458938255906105</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.05022640153765678</v>
+        <v>-0.04799668863415718</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.04340165480971336</v>
+        <v>-0.04245354235172272</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.07707105576992035</v>
+        <v>-0.07982377707958221</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.009640084579586983</v>
+        <v>0.01180193293839693</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.02432739175856113</v>
+        <v>-0.02204499207437038</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.002595316618680954</v>
+        <v>-0.0003272112808190286</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.006959558930248022</v>
+        <v>0.008863958530128002</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.004115425981581211</v>
+        <v>-0.003984267357736826</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.004883223678916693</v>
+        <v>-0.006889062467962503</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.002949974033981562</v>
+        <v>0.004397342447191477</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.0001735839614411816</v>
+        <v>-0.0002501420967746526</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.07251903414726257</v>
+        <v>-0.07146298885345459</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.05137311667203903</v>
+        <v>-0.04923340305685997</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.03627412393689156</v>
+        <v>0.03680167347192764</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.002378462115302682</v>
+        <v>0.005792861338704824</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.004055196419358253</v>
+        <v>0.003649272257462144</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.005859273951500654</v>
+        <v>0.003140326356515288</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.008805715478956699</v>
+        <v>0.01098587270826101</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.008177253417670727</v>
+        <v>-0.008987518958747387</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.00293707218952477</v>
+        <v>0.005150838289409876</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.067963607609272</v>
+        <v>0.07017659395933151</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.0007290880312211812</v>
+        <v>0.0007860606419853866</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.009577491320669651</v>
+        <v>0.01161447633057833</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.08679711073637009</v>
+        <v>-0.08562038093805313</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.002671568188816309</v>
+        <v>0.0005623758188448846</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.03330401703715324</v>
+        <v>0.03525743260979652</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.006562023423612118</v>
+        <v>0.003853598376736045</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.06266900151968002</v>
+        <v>-0.05941643565893173</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.0009772195480763912</v>
+        <v>0.002519725356251001</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.01829412765800953</v>
+        <v>0.0194817278534174</v>
       </c>
       <c r="GN2" t="n">
-        <v>-0.02508016861975193</v>
+        <v>-0.02718324214220047</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.04175617173314095</v>
+        <v>0.0443611852824688</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.00177120859734714</v>
+        <v>0.002837785286828876</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.003218962578102946</v>
+        <v>-0.00332457828335464</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.005348891485482454</v>
+        <v>0.008175235241651535</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.007186026312410831</v>
+        <v>0.01029346790164709</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.0008271298720501363</v>
+        <v>0.002592629520222545</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.01218280848115683</v>
+        <v>-0.01426484622061253</v>
       </c>
       <c r="GV2" t="n">
-        <v>-0.00114435562863946</v>
+        <v>-0.001788288005627692</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.05354540422558784</v>
+        <v>0.05572642385959625</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.0002576518163550645</v>
+        <v>-2.511676211724989e-05</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.003978108521550894</v>
+        <v>0.004568193573504686</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Multi Nationals.xlsx
+++ b/static/Models/Regression/Equation/Multi Nationals.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.02564822509884834</v>
+        <v>-0.02405528537929058</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.02671809867024422</v>
+        <v>-0.02226330153644085</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05438163504004478</v>
+        <v>0.05617790669202805</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04101941734552383</v>
+        <v>0.03702028840780258</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.007400821428745985</v>
+        <v>-0.007640004623681307</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01841784082353115</v>
+        <v>0.01568473689258099</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003018377348780632</v>
+        <v>-0.001113843638449907</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.008936238475143909</v>
+        <v>-0.006874626502394676</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1118906512856483</v>
+        <v>0.1178617477416992</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00150837458204478</v>
+        <v>0.005545446649193764</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01226915884763002</v>
+        <v>0.007587163243442774</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.008927612565457821</v>
+        <v>-0.004550089593976736</v>
       </c>
       <c r="N2" t="n">
-        <v>0.006192705128341913</v>
+        <v>0.002223322866484523</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0088639035820961</v>
+        <v>0.003273837268352509</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0284012071788311</v>
+        <v>0.02975674532353878</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1222248151898384</v>
+        <v>-0.1189379990100861</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.002080685924738646</v>
+        <v>0.002035372192040086</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04979701712727547</v>
+        <v>0.05376899987459183</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.05745059996843338</v>
+        <v>-0.05671984329819679</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0500786080956459</v>
+        <v>0.04296607151627541</v>
       </c>
       <c r="V2" t="n">
-        <v>0.008760868571698666</v>
+        <v>0.01201418321579695</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.02149072289466858</v>
+        <v>-0.02519801072776318</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001313174958340824</v>
+        <v>0.002989677712321281</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.06812281906604767</v>
+        <v>0.07310355454683304</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.002097731456160545</v>
+        <v>-0.0007971828454174101</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.004855913575738668</v>
+        <v>-0.004131334368139505</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.03599287942051888</v>
+        <v>0.03963479772210121</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.01486184541136026</v>
+        <v>-0.01606736518442631</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.06175798550248146</v>
+        <v>-0.06125065311789513</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.04361533746123314</v>
+        <v>-0.05005840957164764</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.008444442413747311</v>
+        <v>0.01264998223632574</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.02147844806313515</v>
+        <v>-0.01798657141625881</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.01728840544819832</v>
+        <v>-0.01160931587219238</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.02600721456110477</v>
+        <v>-0.03086973913013935</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.003412539372220635</v>
+        <v>0.003381648799404502</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.01156063098460436</v>
+        <v>-0.01042281370609999</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.004339433275163174</v>
+        <v>-0.005470967385917902</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.04024079814553261</v>
+        <v>0.03351461514830589</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0219614040106535</v>
+        <v>0.02628452144563198</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.05572469905018806</v>
+        <v>-0.05107613652944565</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.05028684809803963</v>
+        <v>-0.04830486699938774</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.007392746862024069</v>
+        <v>0.008917401544749737</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.05478189885616302</v>
+        <v>0.05116117000579834</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.04315991699695587</v>
+        <v>-0.04188711196184158</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.001901415875181556</v>
+        <v>0.002919643884524703</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.05110267177224159</v>
+        <v>-0.05520009994506836</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.00849983561784029</v>
+        <v>0.01221124548465014</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.01488795876502991</v>
+        <v>0.01081340759992599</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.06651454418897629</v>
+        <v>-0.05925049632787704</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.0411209762096405</v>
+        <v>-0.03710866346955299</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.003847879590466619</v>
+        <v>-0.008543853648006916</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.003411978716030717</v>
+        <v>-0.002852639183402061</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.04777108505368233</v>
+        <v>0.05250627547502518</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.008051573298871517</v>
+        <v>-0.004997655283659697</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.07996717095375061</v>
+        <v>0.08091603964567184</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.01161694806069136</v>
+        <v>-0.00596228102222085</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.03808098286390305</v>
+        <v>0.0424693264067173</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.02400565519928932</v>
+        <v>0.02497376129031181</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.008212470449507236</v>
+        <v>-0.002528252080082893</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.007476643193513155</v>
+        <v>-0.006905605550855398</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.02558874897658825</v>
+        <v>0.02586492896080017</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.003757594153285027</v>
+        <v>-0.007879381999373436</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.02345739491283894</v>
+        <v>-0.02138021029531956</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.01607557386159897</v>
+        <v>-0.01545959431678057</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.04317071661353111</v>
+        <v>0.04924754798412323</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.05276714637875557</v>
+        <v>0.05239084735512733</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.05840732902288437</v>
+        <v>0.05529352277517319</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.01530852168798447</v>
+        <v>-0.01965415850281715</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.004772957880049944</v>
+        <v>0.008665689267218113</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.002959769917652011</v>
+        <v>0.000915807206183672</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.005012669134885073</v>
+        <v>-0.00492777768522501</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.02814859710633755</v>
+        <v>0.02879710681736469</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.1074816212058067</v>
+        <v>0.1041368693113327</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.00374651001766324</v>
+        <v>0.0006180572672747076</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.1730251461267471</v>
+        <v>0.1783534735441208</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.008928141556680202</v>
+        <v>0.005266258958727121</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.1631708443164825</v>
+        <v>-0.1571302115917206</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.03003769554197788</v>
+        <v>-0.03426525741815567</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.04841163009405136</v>
+        <v>-0.04354473575949669</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.01395813096314669</v>
+        <v>0.01597149670124054</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.0003052791289519519</v>
+        <v>0.004207475110888481</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.01172475144267082</v>
+        <v>-0.007259909529238939</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.02153638377785683</v>
+        <v>-0.01633486151695251</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.00508165592327714</v>
+        <v>0.002668832894414663</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.02600562758743763</v>
+        <v>-0.02096327021718025</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.02033992297947407</v>
+        <v>0.01941504329442978</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.05146284401416779</v>
+        <v>0.05686819553375244</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.02137883007526398</v>
+        <v>0.02216084115207195</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.005299508571624756</v>
+        <v>-0.003033950692042708</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.009192734025418758</v>
+        <v>0.009993047453463078</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.004063472617417574</v>
+        <v>0.007867969572544098</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.003509244183078408</v>
+        <v>-0.003936808090656996</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.07925054430961609</v>
+        <v>0.07251762598752975</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.06964720040559769</v>
+        <v>-0.0777520015835762</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.004431742709130049</v>
+        <v>-0.002606415888294578</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.008043709211051464</v>
+        <v>-0.006455829832702875</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.001683914451859891</v>
+        <v>0.003723873989656568</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.001225965097546577</v>
+        <v>0.002244506496936083</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.001341980998404324</v>
+        <v>0.00549741368740797</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.04135847836732864</v>
+        <v>-0.03704544901847839</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.002486515324562788</v>
+        <v>0.006792127154767513</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.0002799612411763519</v>
+        <v>-0.004453493282198906</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.00029344781069085</v>
+        <v>0.001506148721091449</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.01048977673053741</v>
+        <v>-0.0145737212151289</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.05143115669488907</v>
+        <v>-0.05056419968605042</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.006918293889611959</v>
+        <v>-0.003291098400950432</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.05933142080903053</v>
+        <v>0.06433265656232834</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.003296484239399433</v>
+        <v>-0.00172071426641196</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.02463153377175331</v>
+        <v>0.02762859128415585</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.00467339064925909</v>
+        <v>0.0002878426166716963</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.005129298660904169</v>
+        <v>0.00962042436003685</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.0009627042454667389</v>
+        <v>-0.005279692355543375</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.0317482054233551</v>
+        <v>-0.03470718860626221</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.04525696486234665</v>
+        <v>-0.03914406150579453</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.06371289491653442</v>
+        <v>-0.05788642540574074</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.03825791552662849</v>
+        <v>0.04394989833235741</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.0800071507692337</v>
+        <v>-0.07889630645513535</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.01303356885910034</v>
+        <v>-0.0149113554507494</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.01289226673543453</v>
+        <v>-0.01114941015839577</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.0003653292369563133</v>
+        <v>0.0005377922207117081</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.004481000825762749</v>
+        <v>0.006494975183159113</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.006423319224268198</v>
+        <v>0.005605975165963173</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.04229919612407684</v>
+        <v>-0.03878261521458626</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.05751020088791847</v>
+        <v>0.05993256717920303</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.001108419266529381</v>
+        <v>-0.005699004512280226</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.004502068739384413</v>
+        <v>-0.001936072250828147</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.05923368409276009</v>
+        <v>0.06048978865146637</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.02555434964597225</v>
+        <v>0.0312110148370266</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.007905511185526848</v>
+        <v>0.004745034035295248</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.01309323031455278</v>
+        <v>0.01896422356367111</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.03956989198923111</v>
+        <v>-0.0389581024646759</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.006527433637529612</v>
+        <v>0.002936998615041375</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.06766709685325623</v>
+        <v>0.06835459172725677</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.002885451074689627</v>
+        <v>0.003644815878942609</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0267730001360178</v>
+        <v>0.03166944906115532</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.02139538526535034</v>
+        <v>0.02412443235516548</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.1533425748348236</v>
+        <v>-0.1495892405509949</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.04588913917541504</v>
+        <v>0.05204037204384804</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.03697289526462555</v>
+        <v>0.03201926499605179</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.0009464345639571548</v>
+        <v>0.001247045700438321</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.002642243867740035</v>
+        <v>0.002787578152492642</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.07875331491231918</v>
+        <v>0.07438701391220093</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.03186164796352386</v>
+        <v>-0.03663365915417671</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.05683116242289543</v>
+        <v>-0.05724113807082176</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.02347175404429436</v>
+        <v>0.02964700199663639</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.07217266410589218</v>
+        <v>0.07304157316684723</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.005203095730394125</v>
+        <v>0.008707246743142605</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.03052050992846489</v>
+        <v>0.03541741520166397</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02351238392293453</v>
+        <v>0.02832638658583164</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.009176837280392647</v>
+        <v>0.01108813844621181</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.06951436400413513</v>
+        <v>-0.06523102521896362</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.103567972779274</v>
+        <v>0.1097899451851845</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.02922677062451839</v>
+        <v>-0.03296082466840744</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.01281089708209038</v>
+        <v>-0.01174624636769295</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.008508210070431232</v>
+        <v>0.005979400128126144</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.005784124135971069</v>
+        <v>0.006033453624695539</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.009974794462323189</v>
+        <v>-0.008640512824058533</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.09428119659423828</v>
+        <v>-0.08986977487802505</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.006424815393984318</v>
+        <v>0.007670828606933355</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.03238670155405998</v>
+        <v>-0.0310351699590683</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.04112490639090538</v>
+        <v>0.04209922626614571</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.1566204726696014</v>
+        <v>-0.1513134688138962</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.002596917096525431</v>
+        <v>-0.005716756917536259</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0458938255906105</v>
+        <v>0.04737754911184311</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.04799668863415718</v>
+        <v>-0.04510954767465591</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.04245354235172272</v>
+        <v>-0.04611950740218163</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.07982377707958221</v>
+        <v>-0.07432005554437637</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.01180193293839693</v>
+        <v>0.007935873232781887</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.02204499207437038</v>
+        <v>-0.01788821257650852</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.0003272112808190286</v>
+        <v>-0.005832214374095201</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.008863958530128002</v>
+        <v>0.005476560909301043</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.003984267357736826</v>
+        <v>-0.003198133083060384</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.006889062467962503</v>
+        <v>-0.005949599668383598</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.004397342447191477</v>
+        <v>0.006788433995097876</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.0002501420967746526</v>
+        <v>-0.0002695562725421041</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.07146298885345459</v>
+        <v>-0.07046070694923401</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.04923340305685997</v>
+        <v>-0.04871124029159546</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.03680167347192764</v>
+        <v>0.03668452426791191</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.005792861338704824</v>
+        <v>0.001318801427260041</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.003649272257462144</v>
+        <v>0.003193046199157834</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.003140326356515288</v>
+        <v>0.0001524302497273311</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.01098587270826101</v>
+        <v>0.01352506130933762</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.008987518958747387</v>
+        <v>-0.00443078950047493</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.005150838289409876</v>
+        <v>0.0009021451114676893</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.07017659395933151</v>
+        <v>0.06547252833843231</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.0007860606419853866</v>
+        <v>0.0007918097544461489</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.01161447633057833</v>
+        <v>0.01490767672657967</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.08562038093805313</v>
+        <v>-0.08504176884889603</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.0005623758188448846</v>
+        <v>-0.002169200452044606</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.03525743260979652</v>
+        <v>0.03925633057951927</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.003853598376736045</v>
+        <v>0.0007715795654803514</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.05941643565893173</v>
+        <v>-0.05576914921402931</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.002519725356251001</v>
+        <v>-0.001670244964770973</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.0194817278534174</v>
+        <v>0.02082403749227524</v>
       </c>
       <c r="GN2" t="n">
-        <v>-0.02718324214220047</v>
+        <v>-0.03246845304965973</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.0443611852824688</v>
+        <v>0.05022598430514336</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.002837785286828876</v>
+        <v>0.005021010059863329</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.00332457828335464</v>
+        <v>0.000494226929731667</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.008175235241651535</v>
+        <v>0.003318247385323048</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.01029346790164709</v>
+        <v>0.00660429336130619</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.002592629520222545</v>
+        <v>0.006424820516258478</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.01426484622061253</v>
+        <v>-0.01706596277654171</v>
       </c>
       <c r="GV2" t="n">
-        <v>-0.001788288005627692</v>
+        <v>0.00176636257674545</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.05572642385959625</v>
+        <v>0.05279600247740746</v>
       </c>
       <c r="GX2" t="n">
-        <v>-2.511676211724989e-05</v>
+        <v>-0.001469361362978816</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.004568193573504686</v>
+        <v>0.004983242601156235</v>
       </c>
     </row>
   </sheetData>
